--- a/Artillery/Shiny_Shots/shots/M795.xlsx
+++ b/Artillery/Shiny_Shots/shots/M795.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\MyProjects\Artillery\Shiny_Shots\shots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2008D40D-C835-47C7-8148-F90E4AE85AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7030D72B-A0B6-4A6C-9084-9A67431D27AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACD2B132-6E61-4758-88E4-4B02781318D4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>DFS</t>
   </si>
@@ -2499,11 +2499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C41F4F-EBAC-4919-9985-D9EB2643DC57}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,7 +2841,7 @@
         <v>204</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L14" si="6">K7-C7</f>
+        <f t="shared" ref="L7:L15" si="6">K7-C7</f>
         <v>102.3</v>
       </c>
       <c r="M7">
@@ -2927,27 +2927,33 @@
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>-4.1666556537087587</v>
+        <v>2.3879867339872851E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>-2.1666556537087591</v>
+        <v>-2.0603451764385446E-2</v>
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
         <v>61.042317554675947</v>
       </c>
+      <c r="K9">
+        <v>255.8</v>
+      </c>
       <c r="L9">
         <f t="shared" si="6"/>
-        <v>-193.3</v>
+        <v>62.5</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
         <v>-61.042317554675947</v>
       </c>
+      <c r="N9">
+        <v>131</v>
+      </c>
       <c r="O9">
         <f t="shared" si="8"/>
-        <v>-193.3</v>
+        <v>-62.300000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2957,29 +2963,47 @@
       <c r="B10">
         <v>6000</v>
       </c>
+      <c r="C10">
+        <v>246.2</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>426</v>
+      </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>4.5449460719777471E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-3.3658677328201145E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
         <v>50.887204019764404</v>
       </c>
+      <c r="K10">
+        <v>299.39999999999998</v>
+      </c>
       <c r="L10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>53.199999999999989</v>
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
         <v>-50.887204019764404</v>
       </c>
+      <c r="N10">
+        <v>193.6</v>
+      </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-52.599999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2989,29 +3013,47 @@
       <c r="B11">
         <v>7000</v>
       </c>
+      <c r="C11">
+        <v>304.7</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>626</v>
+      </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>6.8140247417609615E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-5.8971661602865412E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
         <v>43.627229769370231</v>
       </c>
+      <c r="K11">
+        <v>351.3</v>
+      </c>
       <c r="L11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>46.600000000000023</v>
       </c>
       <c r="M11">
         <f t="shared" si="7"/>
         <v>-43.627229769370231</v>
       </c>
+      <c r="N11">
+        <v>258.5</v>
+      </c>
       <c r="O11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-46.199999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3021,29 +3063,47 @@
       <c r="B12">
         <v>8000</v>
       </c>
+      <c r="C12">
+        <v>370.1</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>884</v>
+      </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.11054953557288512</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-0.10007265316182075</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
         <v>38.179296503084508</v>
       </c>
+      <c r="K12">
+        <v>412.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>42.399999999999977</v>
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
         <v>-38.179296503084508</v>
       </c>
+      <c r="N12">
+        <v>328.1</v>
+      </c>
       <c r="O12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3053,29 +3113,47 @@
       <c r="B13">
         <v>9000</v>
       </c>
+      <c r="C13">
+        <v>446.3</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>1226</v>
+      </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.19031878268271962</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-0.19031878268272129</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
         <v>33.940487697713351</v>
       </c>
+      <c r="K13">
+        <v>486.7</v>
+      </c>
       <c r="L13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40.399999999999977</v>
       </c>
       <c r="M13">
         <f t="shared" si="7"/>
         <v>-33.940487697713351</v>
       </c>
+      <c r="N13">
+        <v>405.9</v>
+      </c>
       <c r="O13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-40.400000000000034</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3085,29 +3163,47 @@
       <c r="B14">
         <v>10000</v>
       </c>
+      <c r="C14">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>1708</v>
+      </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.44032849826147868</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-0.37158554720809106</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
         <v>30.548586696097015</v>
       </c>
+      <c r="K14">
+        <v>584.70000000000005</v>
+      </c>
       <c r="L14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M14">
         <f t="shared" si="7"/>
         <v>-30.548586696097015</v>
       </c>
+      <c r="N14">
+        <v>498.8</v>
+      </c>
       <c r="O14">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-41.900000000000034</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3115,7 +3211,49 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>3000</v>
+        <v>4000</v>
+      </c>
+      <c r="C15">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>87</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15" si="9">(L15-J15)/ABS(J15)</f>
+        <v>3.2574426955328671E-3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15" si="10">(O15-M15)/ABS(M15)</f>
+        <v>-1.945995058022255E-3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="11">ATAN(300/B15)*3200/PI()</f>
+        <v>76.25161473456032</v>
+      </c>
+      <c r="K15">
+        <v>155.6</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>76.5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="12">ATAN(-300/B15)*3200/PI()</f>
+        <v>-76.25161473456032</v>
+      </c>
+      <c r="N15">
+        <v>2.7</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15" si="13">N15-C15</f>
+        <v>-76.399999999999991</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3125,25 +3263,151 @@
       <c r="B16">
         <v>5000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>106</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>151</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G23" si="14">(L16-J16)/ABS(J16)</f>
+        <v>5.8595816746911823E-3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H23" si="15">(O16-M16)/ABS(M16)</f>
+        <v>-9.4495831145972246E-4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J23" si="16">ATAN(300/B16)*3200/PI()</f>
+        <v>61.042317554675947</v>
+      </c>
+      <c r="K16">
+        <v>167.4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L23" si="17">K16-C16</f>
+        <v>61.400000000000006</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M23" si="18">ATAN(-300/B16)*3200/PI()</f>
+        <v>-61.042317554675947</v>
+      </c>
+      <c r="N16">
+        <v>44.9</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16:O23" si="19">N16-C16</f>
+        <v>-61.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <f>ROUND(AVERAGE(B19,B15),-3)</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+      <c r="C17">
+        <v>172.2</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>366</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="14"/>
+        <v>1.0836586075463207E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="15"/>
+        <v>-8.5444396217768306E-3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="16"/>
+        <v>43.627229769370231</v>
+      </c>
+      <c r="K17">
+        <v>216.3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="17"/>
+        <v>44.100000000000023</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="18"/>
+        <v>-43.627229769370231</v>
+      </c>
+      <c r="N17">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="19"/>
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>211.9</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>529</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="14"/>
+        <v>1.8876814476067462E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="15"/>
+        <v>-1.6257593873301373E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="16"/>
+        <v>38.179296503084508</v>
+      </c>
+      <c r="K18">
+        <v>250.8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="17"/>
+        <v>38.900000000000006</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="18"/>
+        <v>-38.179296503084508</v>
+      </c>
+      <c r="N18">
+        <v>173.1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="19"/>
+        <v>-38.800000000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3151,16 +3415,100 @@
         <f>ROUND(AVERAGE(B23,B15),-3)</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>736</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="14"/>
+        <v>3.4163100796124793E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="15"/>
+        <v>-2.5324099934620783E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="16"/>
+        <v>33.940487697713351</v>
+      </c>
+      <c r="K19">
+        <v>291.2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="17"/>
+        <v>35.099999999999966</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="18"/>
+        <v>-33.940487697713351</v>
+      </c>
+      <c r="N19">
+        <v>221.3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="19"/>
+        <v>-34.800000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
         <v>10000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="D20">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>994</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="14"/>
+        <v>5.4058582818627202E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="15"/>
+        <v>-4.4238161239573158E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="16"/>
+        <v>30.548586696097015</v>
+      </c>
+      <c r="K20">
+        <v>337.3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="17"/>
+        <v>32.199999999999989</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="18"/>
+        <v>-30.548586696097015</v>
+      </c>
+      <c r="N20">
+        <v>273.2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="19"/>
+        <v>-31.900000000000034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3168,96 +3516,490 @@
         <f>ROUND(AVERAGE(B23,B19),-3)</f>
         <v>12000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>420.6</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>1702</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="14"/>
+        <v>0.13120893548428586</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="15"/>
+        <v>-0.11549770026922944</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="16"/>
+        <v>25.459487718482603</v>
+      </c>
+      <c r="K21">
+        <v>449.4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="17"/>
+        <v>28.799999999999955</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="18"/>
+        <v>-25.459487718482603</v>
+      </c>
+      <c r="N21">
+        <v>392.2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="19"/>
+        <v>-28.400000000000034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22">
         <v>13000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>490</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>2191</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="14"/>
+        <v>0.26798855024841994</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="15"/>
+        <v>-0.15735867673681411</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="16"/>
+        <v>23.501789502879692</v>
+      </c>
+      <c r="K22">
+        <v>519.79999999999995</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="17"/>
+        <v>29.799999999999955</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="18"/>
+        <v>-23.501789502879692</v>
+      </c>
+      <c r="N22">
+        <v>462.8</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="19"/>
+        <v>-27.199999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23">
         <v>14000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>577.9</v>
+      </c>
+      <c r="D23">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>2847</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="14"/>
+        <v>0.47088313412861332</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="15"/>
+        <v>-0.38840370604663194</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="16"/>
+        <v>21.823623682391897</v>
+      </c>
+      <c r="K23">
+        <v>610</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="17"/>
+        <v>32.100000000000023</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="18"/>
+        <v>-21.823623682391897</v>
+      </c>
+      <c r="N23">
+        <v>547.6</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="19"/>
+        <v>-30.299999999999955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G31" si="20">(L24-J24)/ABS(J24)</f>
+        <v>6.3454742051201546E-4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H31" si="21">(O24-M24)/ABS(M24)</f>
+        <v>-1.9459950580224413E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J31" si="22">ATAN(300/B24)*3200/PI()</f>
+        <v>76.25161473456032</v>
+      </c>
+      <c r="K24">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L31" si="23">K24-C24</f>
+        <v>76.300000000000011</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M31" si="24">ATAN(-300/B24)*3200/PI()</f>
+        <v>-76.25161473456032</v>
+      </c>
+      <c r="N24">
+        <v>-23.4</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:O31" si="25">N24-C24</f>
+        <v>-76.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+      <c r="C25">
+        <v>89.5</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>154</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="20"/>
+        <v>8.1119799797858601E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="21"/>
+        <v>1.7136728465281196E-3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="22"/>
+        <v>50.887204019764404</v>
+      </c>
+      <c r="K25">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="23"/>
+        <v>51.300000000000011</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="24"/>
+        <v>-50.887204019764404</v>
+      </c>
+      <c r="N25">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="25"/>
+        <v>-50.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26">
         <f>ROUND(AVERAGE(B28,B24),-3)</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8000</v>
+      </c>
+      <c r="C26">
+        <v>136.5</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>332</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="20"/>
+        <v>1.1019152667768446E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="21"/>
+        <v>-5.4227025670370937E-4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="22"/>
+        <v>38.179296503084508</v>
+      </c>
+      <c r="K26">
+        <v>175.1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="23"/>
+        <v>38.599999999999994</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="24"/>
+        <v>-38.179296503084508</v>
+      </c>
+      <c r="N26">
+        <v>98.3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="25"/>
+        <v>-38.200000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="C27">
+        <v>197.3</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>637</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="20"/>
+        <v>1.1503422642719509E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="21"/>
+        <v>-4.9564749233504532E-3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="22"/>
+        <v>30.548586696097015</v>
+      </c>
+      <c r="K27">
+        <v>228.2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="23"/>
+        <v>30.899999999999977</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="24"/>
+        <v>-30.548586696097015</v>
+      </c>
+      <c r="N27">
+        <v>166.6</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="25"/>
+        <v>-30.700000000000017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28">
-        <f>ROUND(AVERAGE(B32,B24),-3)</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12000</v>
+      </c>
+      <c r="C28">
+        <v>274</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="20"/>
+        <v>-11.762196122315792</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="21"/>
+        <v>-2.5158097782635457E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="22"/>
+        <v>25.459487718482603</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="23"/>
+        <v>-274</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="24"/>
+        <v>-25.459487718482603</v>
+      </c>
+      <c r="N28">
+        <v>247.9</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="25"/>
+        <v>-26.099999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="22"/>
+        <v>21.823623682391897</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="24"/>
+        <v>-21.823623682391897</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30">
-        <f>ROUND(AVERAGE(B32,B28),-3)</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="22"/>
+        <v>19.096355526624365</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="24"/>
+        <v>-19.096355526624365</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18000</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="22"/>
+        <v>16.974955624394465</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="24"/>
+        <v>-16.974955624394465</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>18000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +4007,7 @@
         <v>18</v>
       </c>
       <c r="B33">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +4015,8 @@
         <v>18</v>
       </c>
       <c r="B34">
-        <v>6000</v>
+        <f>ROUND(AVERAGE(B36,B32),-3)</f>
+        <v>8000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,8 +4024,7 @@
         <v>18</v>
       </c>
       <c r="B35">
-        <f>ROUND(AVERAGE(B37,B33),-3)</f>
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3290,7 +4032,8 @@
         <v>18</v>
       </c>
       <c r="B36">
-        <v>10000</v>
+        <f>ROUND(AVERAGE(B40,B32),-3)</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3298,8 +4041,7 @@
         <v>18</v>
       </c>
       <c r="B37">
-        <f>ROUND(AVERAGE(B41,B33),-3)</f>
-        <v>12000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +4049,8 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>14000</v>
+        <f>ROUND(AVERAGE(B40,B36),-3)</f>
+        <v>17000</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3315,8 +4058,7 @@
         <v>18</v>
       </c>
       <c r="B39">
-        <f>ROUND(AVERAGE(B41,B37),-3)</f>
-        <v>17000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,14 +4066,6 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41">
         <v>21000</v>
       </c>
     </row>

--- a/Artillery/Shiny_Shots/shots/M795.xlsx
+++ b/Artillery/Shiny_Shots/shots/M795.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\MyProjects\Artillery\Shiny_Shots\shots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7030D72B-A0B6-4A6C-9084-9A67431D27AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE90035A-DFA1-4973-A7ED-947DA1A61FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACD2B132-6E61-4758-88E4-4B02781318D4}"/>
   </bookViews>
@@ -2502,8 +2502,8 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,9 +3870,18 @@
       <c r="C28">
         <v>274</v>
       </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1116</v>
+      </c>
       <c r="G28">
         <f t="shared" si="20"/>
-        <v>-11.762196122315792</v>
+        <v>3.3013715390165906E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="21"/>
@@ -3882,9 +3891,12 @@
         <f t="shared" si="22"/>
         <v>25.459487718482603</v>
       </c>
+      <c r="K28">
+        <v>300.3</v>
+      </c>
       <c r="L28">
         <f t="shared" si="23"/>
-        <v>-274</v>
+        <v>26.300000000000011</v>
       </c>
       <c r="M28">
         <f t="shared" si="24"/>
@@ -3905,29 +3917,47 @@
       <c r="B29">
         <v>14000</v>
       </c>
+      <c r="C29">
+        <v>368.8</v>
+      </c>
+      <c r="D29">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>1825</v>
+      </c>
       <c r="G29">
         <f t="shared" si="20"/>
-        <v>-1</v>
+        <v>7.6814755514716143E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-6.3068184167719241E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="22"/>
         <v>21.823623682391897</v>
       </c>
+      <c r="K29">
+        <v>392.3</v>
+      </c>
       <c r="L29">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="M29">
         <f t="shared" si="24"/>
         <v>-21.823623682391897</v>
       </c>
+      <c r="N29">
+        <v>345.6</v>
+      </c>
       <c r="O29">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-23.199999999999989</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3937,29 +3967,47 @@
       <c r="B30">
         <v>16000</v>
       </c>
+      <c r="C30">
+        <v>488.5</v>
+      </c>
+      <c r="D30">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>2864</v>
+      </c>
       <c r="G30">
         <f t="shared" si="20"/>
-        <v>-1</v>
+        <v>0.19394509429885623</v>
       </c>
       <c r="H30">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-0.15205228397258</v>
       </c>
       <c r="J30">
         <f t="shared" si="22"/>
         <v>19.096355526624365</v>
       </c>
+      <c r="K30">
+        <v>511.3</v>
+      </c>
       <c r="L30">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>22.800000000000011</v>
       </c>
       <c r="M30">
         <f t="shared" si="24"/>
         <v>-19.096355526624365</v>
       </c>
+      <c r="N30">
+        <v>466.5</v>
+      </c>
       <c r="O30">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3969,29 +4017,47 @@
       <c r="B31">
         <v>18000</v>
       </c>
+      <c r="C31">
+        <v>667</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <v>4627</v>
+      </c>
       <c r="G31">
         <f t="shared" si="20"/>
-        <v>-1</v>
+        <v>0.89691217535354784</v>
       </c>
       <c r="H31">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-0.69661710093732965</v>
       </c>
       <c r="J31">
         <f t="shared" si="22"/>
         <v>16.974955624394465</v>
       </c>
+      <c r="K31">
+        <v>699.2</v>
+      </c>
       <c r="L31">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>32.200000000000045</v>
       </c>
       <c r="M31">
         <f t="shared" si="24"/>
         <v>-16.974955624394465</v>
       </c>
+      <c r="N31">
+        <v>638.20000000000005</v>
+      </c>
       <c r="O31">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-28.799999999999955</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3999,52 +4065,304 @@
         <v>18</v>
       </c>
       <c r="B32">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+      <c r="C32">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>71</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G40" si="26">(L32-J32)/ABS(J32)</f>
+        <v>9.4495831145960602E-4</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H40" si="27">(O32-M32)/ABS(M32)</f>
+        <v>6.932494762840974E-4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J40" si="28">ATAN(300/B32)*3200/PI()</f>
+        <v>61.042317554675947</v>
+      </c>
+      <c r="K32">
+        <v>112.1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L40" si="29">K32-C32</f>
+        <v>61.099999999999994</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M40" si="30">ATAN(-300/B32)*3200/PI()</f>
+        <v>-61.042317554675947</v>
+      </c>
+      <c r="N32">
+        <v>-10</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:O40" si="31">N32-C32</f>
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
       <c r="B33">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+      <c r="C33">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>163</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="26"/>
+        <v>-6.2414619296639971E-4</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="27"/>
+        <v>2.9162926466526143E-3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="28"/>
+        <v>43.627229769370231</v>
+      </c>
+      <c r="K33">
+        <v>123.7</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="29"/>
+        <v>43.600000000000009</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="30"/>
+        <v>-43.627229769370231</v>
+      </c>
+      <c r="N33">
+        <v>36.6</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="31"/>
+        <v>-43.499999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
       <c r="B34">
         <f>ROUND(AVERAGE(B36,B32),-3)</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9000</v>
+      </c>
+      <c r="C34">
+        <v>116.6</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>322</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="26"/>
+        <v>-1.1929026498954296E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="27"/>
+        <v>1.0031903511401112E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="28"/>
+        <v>33.940487697713351</v>
+      </c>
+      <c r="K34">
+        <v>150.5</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="29"/>
+        <v>33.900000000000006</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="30"/>
+        <v>-33.940487697713351</v>
+      </c>
+      <c r="N34">
+        <v>83</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="31"/>
+        <v>-33.599999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11000</v>
+      </c>
+      <c r="C35">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>581</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="26"/>
+        <v>-6.2250427179554686E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="27"/>
+        <v>1.7026944427542295E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="28"/>
+        <v>27.772887410531521</v>
+      </c>
+      <c r="K35">
+        <v>190.4</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="29"/>
+        <v>27.599999999999994</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="30"/>
+        <v>-27.772887410531521</v>
+      </c>
+      <c r="N35">
+        <v>135.5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="31"/>
+        <v>-27.300000000000011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36">
         <f>ROUND(AVERAGE(B40,B32),-3)</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13000</v>
+      </c>
+      <c r="C36">
+        <v>220.9</v>
+      </c>
+      <c r="D36">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>980</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="26"/>
+        <v>-1.2841128665658631E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="27"/>
+        <v>2.1351118935781784E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="28"/>
+        <v>23.501789502879692</v>
+      </c>
+      <c r="K36">
+        <v>244.1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="29"/>
+        <v>23.199999999999989</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="30"/>
+        <v>-23.501789502879692</v>
+      </c>
+      <c r="N36">
+        <v>197.9</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="31"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+      <c r="C37">
+        <v>291.89999999999998</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>14</v>
+      </c>
+      <c r="F37">
+        <v>1562</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="26"/>
+        <v>-1.3212017069093401E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="27"/>
+        <v>1.8121410018999518E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="28"/>
+        <v>20.369117123112954</v>
+      </c>
+      <c r="K37">
+        <v>312</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="29"/>
+        <v>20.100000000000023</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="30"/>
+        <v>-20.369117123112954</v>
+      </c>
+      <c r="N37">
+        <v>271.89999999999998</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="31"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -4052,21 +4370,147 @@
         <f>ROUND(AVERAGE(B40,B36),-3)</f>
         <v>17000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>377.2</v>
+      </c>
+      <c r="D38">
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>2375</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="26"/>
+        <v>1.8178042781862257E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="27"/>
+        <v>-1.4865994575688113E-3</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="28"/>
+        <v>17.973280930318257</v>
+      </c>
+      <c r="K38">
+        <v>395.5</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="29"/>
+        <v>18.300000000000011</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="30"/>
+        <v>-17.973280930318257</v>
+      </c>
+      <c r="N38">
+        <v>359.2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="31"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39">
         <v>19000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>481.7</v>
+      </c>
+      <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>3507</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="26"/>
+        <v>9.4412375795279377E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="27"/>
+        <v>-7.5757619389677344E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="28"/>
+        <v>16.081689488581109</v>
+      </c>
+      <c r="K39">
+        <v>499.3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="29"/>
+        <v>17.600000000000023</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="30"/>
+        <v>-16.081689488581109</v>
+      </c>
+      <c r="N39">
+        <v>464.4</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="31"/>
+        <v>-17.300000000000011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
       <c r="B40">
         <v>21000</v>
+      </c>
+      <c r="C40">
+        <v>624</v>
+      </c>
+      <c r="D40">
+        <v>64</v>
+      </c>
+      <c r="E40">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>5234</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="26"/>
+        <v>0.395158384848594</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="27"/>
+        <v>-0.34017677362303667</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="28"/>
+        <v>14.550319318908699</v>
+      </c>
+      <c r="K40">
+        <v>644.29999999999995</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="29"/>
+        <v>20.299999999999955</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="30"/>
+        <v>-14.550319318908699</v>
+      </c>
+      <c r="N40">
+        <v>604.5</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="31"/>
+        <v>-19.5</v>
       </c>
     </row>
   </sheetData>

--- a/Artillery/Shiny_Shots/shots/M795.xlsx
+++ b/Artillery/Shiny_Shots/shots/M795.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\MyProjects\Artillery\Shiny_Shots\shots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE90035A-DFA1-4973-A7ED-947DA1A61FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94902F4B-AD50-461B-A381-910A2CF4685A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACD2B132-6E61-4758-88E4-4B02781318D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{ACD2B132-6E61-4758-88E4-4B02781318D4}"/>
   </bookViews>
   <sheets>
     <sheet name="MACs" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="7R" sheetId="1" r:id="rId3"/>
-    <sheet name="4H" sheetId="2" r:id="rId4"/>
+    <sheet name="Alt" sheetId="5" r:id="rId2"/>
+    <sheet name="Alt (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="7R" sheetId="1" r:id="rId5"/>
+    <sheet name="4H" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="27">
   <si>
     <t>DFS</t>
   </si>
@@ -109,6 +111,12 @@
   </si>
   <si>
     <t>QE -300 VI</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C41F4F-EBAC-4919-9985-D9EB2643DC57}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
@@ -4520,6 +4528,7896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E58739-A28C-4E95-B4CC-E1B935A41457}">
+  <dimension ref="A1:J154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>288.2</v>
+      </c>
+      <c r="C2">
+        <v>2500</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>105</v>
+      </c>
+      <c r="I2">
+        <v>2.5899818199726022E-2</v>
+      </c>
+      <c r="J2">
+        <v>-2.343371286751493E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>288.2</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>201</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>156</v>
+      </c>
+      <c r="I3">
+        <v>4.1157171740528541E-2</v>
+      </c>
+      <c r="J3">
+        <v>-3.8202137194434493E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>288.2</v>
+      </c>
+      <c r="C4">
+        <v>3001</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>200.2</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>655</v>
+      </c>
+      <c r="I4">
+        <v>4.1157171740528541E-2</v>
+      </c>
+      <c r="J4">
+        <v>-3.8202137194434493E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>288.2</v>
+      </c>
+      <c r="C5">
+        <v>3001</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>199.4</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1154</v>
+      </c>
+      <c r="I5">
+        <v>4.1157171740528541E-2</v>
+      </c>
+      <c r="J5">
+        <v>-3.8202137194434493E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>288.2</v>
+      </c>
+      <c r="C6">
+        <v>3001</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <v>198.3</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1653</v>
+      </c>
+      <c r="I6">
+        <v>4.1157171740528541E-2</v>
+      </c>
+      <c r="J6">
+        <v>-3.8202137194434493E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>288.2</v>
+      </c>
+      <c r="C7">
+        <v>4000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>301</v>
+      </c>
+      <c r="I7">
+        <v>8.9812986771225456E-2</v>
+      </c>
+      <c r="J7">
+        <v>-8.194430094616327E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>288.2</v>
+      </c>
+      <c r="C8">
+        <v>4002</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>281</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>798</v>
+      </c>
+      <c r="I8">
+        <v>8.9812986771225456E-2</v>
+      </c>
+      <c r="J8">
+        <v>-8.194430094616327E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>288.2</v>
+      </c>
+      <c r="C9">
+        <v>4002</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>1296</v>
+      </c>
+      <c r="I9">
+        <v>8.9812986771225456E-2</v>
+      </c>
+      <c r="J9">
+        <v>-8.194430094616327E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>288.2</v>
+      </c>
+      <c r="C10">
+        <v>4002</v>
+      </c>
+      <c r="D10">
+        <v>1500</v>
+      </c>
+      <c r="E10">
+        <v>277.8</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>1793</v>
+      </c>
+      <c r="I10">
+        <v>8.9812986771225456E-2</v>
+      </c>
+      <c r="J10">
+        <v>-8.194430094616327E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>288.2</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>378.9</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>522</v>
+      </c>
+      <c r="I11">
+        <v>0.18442423053876511</v>
+      </c>
+      <c r="J11">
+        <v>-0.16804215266132622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>288.2</v>
+      </c>
+      <c r="C12">
+        <v>5002</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>375.9</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>1015</v>
+      </c>
+      <c r="I12">
+        <v>0.184424230538765</v>
+      </c>
+      <c r="J12">
+        <v>-0.16804215266132622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>288.2</v>
+      </c>
+      <c r="C13">
+        <v>5002</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>372.8</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>1509</v>
+      </c>
+      <c r="I13">
+        <v>0.184424230538765</v>
+      </c>
+      <c r="J13">
+        <v>-0.16804215266132622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>288.2</v>
+      </c>
+      <c r="C14">
+        <v>5002</v>
+      </c>
+      <c r="D14">
+        <v>1500</v>
+      </c>
+      <c r="E14">
+        <v>369.9</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>2003</v>
+      </c>
+      <c r="I14">
+        <v>0.184424230538765</v>
+      </c>
+      <c r="J14">
+        <v>-0.16804215266132622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>288.2</v>
+      </c>
+      <c r="C15">
+        <v>6000</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>505.5</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>878</v>
+      </c>
+      <c r="I15">
+        <v>0.49153409903441925</v>
+      </c>
+      <c r="J15">
+        <v>-0.38738217907549494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>288.2</v>
+      </c>
+      <c r="C16">
+        <v>6002</v>
+      </c>
+      <c r="D16">
+        <v>500</v>
+      </c>
+      <c r="E16">
+        <v>498.9</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>1363</v>
+      </c>
+      <c r="I16">
+        <v>0.49153409903441925</v>
+      </c>
+      <c r="J16">
+        <v>-0.38738217907549494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>288.2</v>
+      </c>
+      <c r="C17">
+        <v>6002</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>492.7</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>1847</v>
+      </c>
+      <c r="I17">
+        <v>0.49153409903441925</v>
+      </c>
+      <c r="J17">
+        <v>-0.38738217907549494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>288.2</v>
+      </c>
+      <c r="C18">
+        <v>6002</v>
+      </c>
+      <c r="D18">
+        <v>1500</v>
+      </c>
+      <c r="E18">
+        <v>487</v>
+      </c>
+      <c r="F18">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>2332</v>
+      </c>
+      <c r="I18">
+        <v>0.49153409903441925</v>
+      </c>
+      <c r="J18">
+        <v>-0.38738217907549494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>101.7</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>83</v>
+      </c>
+      <c r="I19">
+        <v>7.6667802181275115E-3</v>
+      </c>
+      <c r="J19">
+        <v>-2.7417226413038189E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>3000</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>7.6667802181275115E-3</v>
+      </c>
+      <c r="J20">
+        <v>-2.7417226413038189E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>3000</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>7.6667802181275115E-3</v>
+      </c>
+      <c r="J21">
+        <v>-2.7417226413038189E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>3000</v>
+      </c>
+      <c r="D22">
+        <v>1500</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>7.6667802181275115E-3</v>
+      </c>
+      <c r="J22">
+        <v>-2.7417226413038189E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>4000</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>145.1</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>161</v>
+      </c>
+      <c r="I23">
+        <v>1.5060471433127446E-2</v>
+      </c>
+      <c r="J23">
+        <v>-9.8146808830853697E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>4000</v>
+      </c>
+      <c r="D24">
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>1.5060471433127446E-2</v>
+      </c>
+      <c r="J24">
+        <v>-9.8146808830853697E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>4000</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>1.5060471433127446E-2</v>
+      </c>
+      <c r="J25">
+        <v>-9.8146808830853697E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>4000</v>
+      </c>
+      <c r="D26">
+        <v>1500</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>1.5060471433127446E-2</v>
+      </c>
+      <c r="J26">
+        <v>-9.8146808830853697E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>193.3</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>274</v>
+      </c>
+      <c r="I27">
+        <v>2.3879867339872851E-2</v>
+      </c>
+      <c r="J27">
+        <v>-2.0603451764385446E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>5000</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>2.3879867339872851E-2</v>
+      </c>
+      <c r="J28">
+        <v>-2.0603451764385446E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>2.3879867339872851E-2</v>
+      </c>
+      <c r="J29">
+        <v>-2.0603451764385446E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>5000</v>
+      </c>
+      <c r="D30">
+        <v>1500</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>2.3879867339872851E-2</v>
+      </c>
+      <c r="J30">
+        <v>-2.0603451764385446E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>6000</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>246.2</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>426</v>
+      </c>
+      <c r="I31">
+        <v>4.5449460719777471E-2</v>
+      </c>
+      <c r="J31">
+        <v>-3.3658677328201145E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>6000</v>
+      </c>
+      <c r="D32">
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>18</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>4.5449460719777471E-2</v>
+      </c>
+      <c r="J32">
+        <v>-3.3658677328201145E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>6000</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>4.5449460719777471E-2</v>
+      </c>
+      <c r="J33">
+        <v>-3.3658677328201145E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>6000</v>
+      </c>
+      <c r="D34">
+        <v>1500</v>
+      </c>
+      <c r="F34">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>4.5449460719777471E-2</v>
+      </c>
+      <c r="J34">
+        <v>-3.3658677328201145E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>7000</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>304.7</v>
+      </c>
+      <c r="F35">
+        <v>22</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>626</v>
+      </c>
+      <c r="I35">
+        <v>6.8140247417609615E-2</v>
+      </c>
+      <c r="J35">
+        <v>-5.8971661602865412E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>7000</v>
+      </c>
+      <c r="D36">
+        <v>500</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>6.8140247417609615E-2</v>
+      </c>
+      <c r="J36">
+        <v>-5.8971661602865412E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>7000</v>
+      </c>
+      <c r="D37">
+        <v>1000</v>
+      </c>
+      <c r="F37">
+        <v>22</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>6.8140247417609615E-2</v>
+      </c>
+      <c r="J37">
+        <v>-5.8971661602865412E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>7000</v>
+      </c>
+      <c r="D38">
+        <v>1500</v>
+      </c>
+      <c r="F38">
+        <v>22</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>6.8140247417609615E-2</v>
+      </c>
+      <c r="J38">
+        <v>-5.8971661602865412E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>8000</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>370.1</v>
+      </c>
+      <c r="F39">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>884</v>
+      </c>
+      <c r="I39">
+        <v>0.11054953557288512</v>
+      </c>
+      <c r="J39">
+        <v>-0.10007265316182075</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>8000</v>
+      </c>
+      <c r="D40">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>26</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>0.11054953557288512</v>
+      </c>
+      <c r="J40">
+        <v>-0.10007265316182075</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>8000</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="F41">
+        <v>26</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>0.11054953557288512</v>
+      </c>
+      <c r="J41">
+        <v>-0.10007265316182075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>8000</v>
+      </c>
+      <c r="D42">
+        <v>1500</v>
+      </c>
+      <c r="F42">
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>0.11054953557288512</v>
+      </c>
+      <c r="J42">
+        <v>-0.10007265316182075</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>9000</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>446.3</v>
+      </c>
+      <c r="F43">
+        <v>31</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+      <c r="H43">
+        <v>1226</v>
+      </c>
+      <c r="I43">
+        <v>0.19031878268271962</v>
+      </c>
+      <c r="J43">
+        <v>-0.19031878268272129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>9000</v>
+      </c>
+      <c r="D44">
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <v>31</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>0.19031878268271962</v>
+      </c>
+      <c r="J44">
+        <v>-0.19031878268272129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>9000</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+      <c r="F45">
+        <v>31</v>
+      </c>
+      <c r="G45">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>0.19031878268271962</v>
+      </c>
+      <c r="J45">
+        <v>-0.19031878268272129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>9000</v>
+      </c>
+      <c r="D46">
+        <v>1500</v>
+      </c>
+      <c r="F46">
+        <v>31</v>
+      </c>
+      <c r="G46">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>0.19031878268271962</v>
+      </c>
+      <c r="J46">
+        <v>-0.19031878268272129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>10000</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="F47">
+        <v>36</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>1708</v>
+      </c>
+      <c r="I47">
+        <v>0.44032849826147868</v>
+      </c>
+      <c r="J47">
+        <v>-0.37158554720809106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>10000</v>
+      </c>
+      <c r="D48">
+        <v>500</v>
+      </c>
+      <c r="F48">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>0.44032849826147868</v>
+      </c>
+      <c r="J48">
+        <v>-0.37158554720809106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>10000</v>
+      </c>
+      <c r="D49">
+        <v>1000</v>
+      </c>
+      <c r="F49">
+        <v>36</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>0.44032849826147868</v>
+      </c>
+      <c r="J49">
+        <v>-0.37158554720809106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50">
+        <v>1500</v>
+      </c>
+      <c r="F50">
+        <v>36</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>0.44032849826147868</v>
+      </c>
+      <c r="J50">
+        <v>-0.37158554720809106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>4000</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>87</v>
+      </c>
+      <c r="I51">
+        <v>3.2574426955328671E-3</v>
+      </c>
+      <c r="J51">
+        <v>-1.945995058022255E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>4000</v>
+      </c>
+      <c r="D52">
+        <v>500</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>3.2574426955328671E-3</v>
+      </c>
+      <c r="J52">
+        <v>-1.945995058022255E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>4000</v>
+      </c>
+      <c r="D53">
+        <v>1000</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>3.2574426955328671E-3</v>
+      </c>
+      <c r="J53">
+        <v>-1.945995058022255E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>4000</v>
+      </c>
+      <c r="D54">
+        <v>1500</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>3.2574426955328671E-3</v>
+      </c>
+      <c r="J54">
+        <v>-1.945995058022255E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>5000</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>106</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>151</v>
+      </c>
+      <c r="I55">
+        <v>5.8595816746911823E-3</v>
+      </c>
+      <c r="J55">
+        <v>-9.4495831145972246E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>5000</v>
+      </c>
+      <c r="D56">
+        <v>500</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>5.8595816746911823E-3</v>
+      </c>
+      <c r="J56">
+        <v>-9.4495831145972246E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>5000</v>
+      </c>
+      <c r="D57">
+        <v>1000</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>5.8595816746911823E-3</v>
+      </c>
+      <c r="J57">
+        <v>-9.4495831145972246E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>5000</v>
+      </c>
+      <c r="D58">
+        <v>1500</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>5.8595816746911823E-3</v>
+      </c>
+      <c r="J58">
+        <v>-9.4495831145972246E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>7000</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>172.2</v>
+      </c>
+      <c r="F59">
+        <v>17</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>366</v>
+      </c>
+      <c r="I59">
+        <v>1.0836586075463207E-2</v>
+      </c>
+      <c r="J59">
+        <v>-8.5444396217768306E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>7000</v>
+      </c>
+      <c r="D60">
+        <v>500</v>
+      </c>
+      <c r="F60">
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>1.0836586075463207E-2</v>
+      </c>
+      <c r="J60">
+        <v>-8.5444396217768306E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>7000</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+      <c r="F61">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>1.0836586075463207E-2</v>
+      </c>
+      <c r="J61">
+        <v>-8.5444396217768306E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>7000</v>
+      </c>
+      <c r="D62">
+        <v>1500</v>
+      </c>
+      <c r="F62">
+        <v>17</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>1.0836586075463207E-2</v>
+      </c>
+      <c r="J62">
+        <v>-8.5444396217768306E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>8000</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>211.9</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="H63">
+        <v>529</v>
+      </c>
+      <c r="I63">
+        <v>1.8876814476067462E-2</v>
+      </c>
+      <c r="J63">
+        <v>-1.6257593873301373E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>8000</v>
+      </c>
+      <c r="D64">
+        <v>500</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>1.8876814476067462E-2</v>
+      </c>
+      <c r="J64">
+        <v>-1.6257593873301373E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>8000</v>
+      </c>
+      <c r="D65">
+        <v>1000</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="I65">
+        <v>1.8876814476067462E-2</v>
+      </c>
+      <c r="J65">
+        <v>-1.6257593873301373E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>8000</v>
+      </c>
+      <c r="D66">
+        <v>1500</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>1.8876814476067462E-2</v>
+      </c>
+      <c r="J66">
+        <v>-1.6257593873301373E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>9000</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="F67">
+        <v>24</v>
+      </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>736</v>
+      </c>
+      <c r="I67">
+        <v>3.4163100796124793E-2</v>
+      </c>
+      <c r="J67">
+        <v>-2.5324099934620783E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>9000</v>
+      </c>
+      <c r="D68">
+        <v>500</v>
+      </c>
+      <c r="F68">
+        <v>24</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="I68">
+        <v>3.4163100796124793E-2</v>
+      </c>
+      <c r="J68">
+        <v>-2.5324099934620783E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>9000</v>
+      </c>
+      <c r="D69">
+        <v>1000</v>
+      </c>
+      <c r="F69">
+        <v>24</v>
+      </c>
+      <c r="G69">
+        <v>9</v>
+      </c>
+      <c r="I69">
+        <v>3.4163100796124793E-2</v>
+      </c>
+      <c r="J69">
+        <v>-2.5324099934620783E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>9000</v>
+      </c>
+      <c r="D70">
+        <v>1500</v>
+      </c>
+      <c r="F70">
+        <v>24</v>
+      </c>
+      <c r="G70">
+        <v>9</v>
+      </c>
+      <c r="I70">
+        <v>3.4163100796124793E-2</v>
+      </c>
+      <c r="J70">
+        <v>-2.5324099934620783E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>10000</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="F71">
+        <v>27</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <v>994</v>
+      </c>
+      <c r="I71">
+        <v>5.4058582818627202E-2</v>
+      </c>
+      <c r="J71">
+        <v>-4.4238161239573158E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>10000</v>
+      </c>
+      <c r="D72">
+        <v>500</v>
+      </c>
+      <c r="F72">
+        <v>27</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="I72">
+        <v>5.4058582818627202E-2</v>
+      </c>
+      <c r="J72">
+        <v>-4.4238161239573158E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>10000</v>
+      </c>
+      <c r="D73">
+        <v>1000</v>
+      </c>
+      <c r="F73">
+        <v>27</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <v>5.4058582818627202E-2</v>
+      </c>
+      <c r="J73">
+        <v>-4.4238161239573158E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>10000</v>
+      </c>
+      <c r="D74">
+        <v>1500</v>
+      </c>
+      <c r="F74">
+        <v>27</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <v>5.4058582818627202E-2</v>
+      </c>
+      <c r="J74">
+        <v>-4.4238161239573158E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>12000</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>420.6</v>
+      </c>
+      <c r="F75">
+        <v>36</v>
+      </c>
+      <c r="G75">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>1702</v>
+      </c>
+      <c r="I75">
+        <v>0.13120893548428586</v>
+      </c>
+      <c r="J75">
+        <v>-0.11549770026922944</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>12000</v>
+      </c>
+      <c r="D76">
+        <v>500</v>
+      </c>
+      <c r="F76">
+        <v>36</v>
+      </c>
+      <c r="G76">
+        <v>15</v>
+      </c>
+      <c r="I76">
+        <v>0.13120893548428586</v>
+      </c>
+      <c r="J76">
+        <v>-0.11549770026922944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>12000</v>
+      </c>
+      <c r="D77">
+        <v>1000</v>
+      </c>
+      <c r="F77">
+        <v>36</v>
+      </c>
+      <c r="G77">
+        <v>15</v>
+      </c>
+      <c r="I77">
+        <v>0.13120893548428586</v>
+      </c>
+      <c r="J77">
+        <v>-0.11549770026922944</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>12000</v>
+      </c>
+      <c r="D78">
+        <v>1500</v>
+      </c>
+      <c r="F78">
+        <v>36</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="I78">
+        <v>0.13120893548428586</v>
+      </c>
+      <c r="J78">
+        <v>-0.11549770026922944</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>13000</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>490</v>
+      </c>
+      <c r="F79">
+        <v>41</v>
+      </c>
+      <c r="G79">
+        <v>17</v>
+      </c>
+      <c r="H79">
+        <v>2191</v>
+      </c>
+      <c r="I79">
+        <v>0.26798855024841994</v>
+      </c>
+      <c r="J79">
+        <v>-0.15735867673681411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>13000</v>
+      </c>
+      <c r="D80">
+        <v>500</v>
+      </c>
+      <c r="F80">
+        <v>41</v>
+      </c>
+      <c r="G80">
+        <v>17</v>
+      </c>
+      <c r="I80">
+        <v>0.26798855024841994</v>
+      </c>
+      <c r="J80">
+        <v>-0.15735867673681411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>13000</v>
+      </c>
+      <c r="D81">
+        <v>1000</v>
+      </c>
+      <c r="F81">
+        <v>41</v>
+      </c>
+      <c r="G81">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>0.26798855024841994</v>
+      </c>
+      <c r="J81">
+        <v>-0.15735867673681411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>13000</v>
+      </c>
+      <c r="D82">
+        <v>1500</v>
+      </c>
+      <c r="F82">
+        <v>41</v>
+      </c>
+      <c r="G82">
+        <v>17</v>
+      </c>
+      <c r="I82">
+        <v>0.26798855024841994</v>
+      </c>
+      <c r="J82">
+        <v>-0.15735867673681411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>14000</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>577.9</v>
+      </c>
+      <c r="F83">
+        <v>47</v>
+      </c>
+      <c r="G83">
+        <v>21</v>
+      </c>
+      <c r="H83">
+        <v>2847</v>
+      </c>
+      <c r="I83">
+        <v>0.47088313412861332</v>
+      </c>
+      <c r="J83">
+        <v>-0.38840370604663194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>14000</v>
+      </c>
+      <c r="D84">
+        <v>500</v>
+      </c>
+      <c r="F84">
+        <v>47</v>
+      </c>
+      <c r="G84">
+        <v>21</v>
+      </c>
+      <c r="I84">
+        <v>0.47088313412861332</v>
+      </c>
+      <c r="J84">
+        <v>-0.38840370604663194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>14000</v>
+      </c>
+      <c r="D85">
+        <v>1000</v>
+      </c>
+      <c r="F85">
+        <v>47</v>
+      </c>
+      <c r="G85">
+        <v>21</v>
+      </c>
+      <c r="I85">
+        <v>0.47088313412861332</v>
+      </c>
+      <c r="J85">
+        <v>-0.38840370604663194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>14000</v>
+      </c>
+      <c r="D86">
+        <v>1500</v>
+      </c>
+      <c r="F86">
+        <v>47</v>
+      </c>
+      <c r="G86">
+        <v>21</v>
+      </c>
+      <c r="I86">
+        <v>0.47088313412861332</v>
+      </c>
+      <c r="J86">
+        <v>-0.38840370604663194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>4000</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>53</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>58</v>
+      </c>
+      <c r="I87">
+        <v>6.3454742051201546E-4</v>
+      </c>
+      <c r="J87">
+        <v>-1.9459950580224413E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>4000</v>
+      </c>
+      <c r="D88">
+        <v>500</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>6.3454742051201546E-4</v>
+      </c>
+      <c r="J88">
+        <v>-1.9459950580224413E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>4000</v>
+      </c>
+      <c r="D89">
+        <v>1000</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>6.3454742051201546E-4</v>
+      </c>
+      <c r="J89">
+        <v>-1.9459950580224413E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>4000</v>
+      </c>
+      <c r="D90">
+        <v>1500</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>6.3454742051201546E-4</v>
+      </c>
+      <c r="J90">
+        <v>-1.9459950580224413E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>6000</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>89.5</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>154</v>
+      </c>
+      <c r="I91">
+        <v>8.1119799797858601E-3</v>
+      </c>
+      <c r="J91">
+        <v>1.7136728465281196E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>6000</v>
+      </c>
+      <c r="D92">
+        <v>500</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>8.1119799797858601E-3</v>
+      </c>
+      <c r="J92">
+        <v>1.7136728465281196E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>6000</v>
+      </c>
+      <c r="D93">
+        <v>1000</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>8.1119799797858601E-3</v>
+      </c>
+      <c r="J93">
+        <v>1.7136728465281196E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>6000</v>
+      </c>
+      <c r="D94">
+        <v>1500</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>8.1119799797858601E-3</v>
+      </c>
+      <c r="J94">
+        <v>1.7136728465281196E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>8000</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>136.5</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>332</v>
+      </c>
+      <c r="I95">
+        <v>1.1019152667768446E-2</v>
+      </c>
+      <c r="J95">
+        <v>-5.4227025670370937E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96">
+        <v>8000</v>
+      </c>
+      <c r="D96">
+        <v>500</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>1.1019152667768446E-2</v>
+      </c>
+      <c r="J96">
+        <v>-5.4227025670370937E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>8000</v>
+      </c>
+      <c r="D97">
+        <v>1000</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>1.1019152667768446E-2</v>
+      </c>
+      <c r="J97">
+        <v>-5.4227025670370937E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>8000</v>
+      </c>
+      <c r="D98">
+        <v>1500</v>
+      </c>
+      <c r="F98">
+        <v>16</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>1.1019152667768446E-2</v>
+      </c>
+      <c r="J98">
+        <v>-5.4227025670370937E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>10000</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>197.3</v>
+      </c>
+      <c r="F99">
+        <v>22</v>
+      </c>
+      <c r="G99">
+        <v>8</v>
+      </c>
+      <c r="H99">
+        <v>637</v>
+      </c>
+      <c r="I99">
+        <v>1.1503422642719509E-2</v>
+      </c>
+      <c r="J99">
+        <v>-4.9564749233504532E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>10000</v>
+      </c>
+      <c r="D100">
+        <v>500</v>
+      </c>
+      <c r="F100">
+        <v>22</v>
+      </c>
+      <c r="G100">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>1.1503422642719509E-2</v>
+      </c>
+      <c r="J100">
+        <v>-4.9564749233504532E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>10000</v>
+      </c>
+      <c r="D101">
+        <v>1000</v>
+      </c>
+      <c r="F101">
+        <v>22</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+      <c r="I101">
+        <v>1.1503422642719509E-2</v>
+      </c>
+      <c r="J101">
+        <v>-4.9564749233504532E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102">
+        <v>10000</v>
+      </c>
+      <c r="D102">
+        <v>1500</v>
+      </c>
+      <c r="F102">
+        <v>22</v>
+      </c>
+      <c r="G102">
+        <v>8</v>
+      </c>
+      <c r="I102">
+        <v>1.1503422642719509E-2</v>
+      </c>
+      <c r="J102">
+        <v>-4.9564749233504532E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>12000</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>274</v>
+      </c>
+      <c r="F103">
+        <v>29</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103">
+        <v>1116</v>
+      </c>
+      <c r="I103">
+        <v>3.3013715390165906E-2</v>
+      </c>
+      <c r="J103">
+        <v>-2.5158097782635457E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>12000</v>
+      </c>
+      <c r="D104">
+        <v>500</v>
+      </c>
+      <c r="F104">
+        <v>29</v>
+      </c>
+      <c r="G104">
+        <v>10</v>
+      </c>
+      <c r="I104">
+        <v>3.3013715390165906E-2</v>
+      </c>
+      <c r="J104">
+        <v>-2.5158097782635457E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>12000</v>
+      </c>
+      <c r="D105">
+        <v>1000</v>
+      </c>
+      <c r="F105">
+        <v>29</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+      <c r="I105">
+        <v>3.3013715390165906E-2</v>
+      </c>
+      <c r="J105">
+        <v>-2.5158097782635457E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>12000</v>
+      </c>
+      <c r="D106">
+        <v>1500</v>
+      </c>
+      <c r="F106">
+        <v>29</v>
+      </c>
+      <c r="G106">
+        <v>10</v>
+      </c>
+      <c r="I106">
+        <v>3.3013715390165906E-2</v>
+      </c>
+      <c r="J106">
+        <v>-2.5158097782635457E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>14000</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>368.8</v>
+      </c>
+      <c r="F107">
+        <v>37</v>
+      </c>
+      <c r="G107">
+        <v>14</v>
+      </c>
+      <c r="H107">
+        <v>1825</v>
+      </c>
+      <c r="I107">
+        <v>7.6814755514716143E-2</v>
+      </c>
+      <c r="J107">
+        <v>-6.3068184167719241E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>14000</v>
+      </c>
+      <c r="D108">
+        <v>500</v>
+      </c>
+      <c r="F108">
+        <v>37</v>
+      </c>
+      <c r="G108">
+        <v>14</v>
+      </c>
+      <c r="I108">
+        <v>7.6814755514716143E-2</v>
+      </c>
+      <c r="J108">
+        <v>-6.3068184167719241E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>14000</v>
+      </c>
+      <c r="D109">
+        <v>1000</v>
+      </c>
+      <c r="F109">
+        <v>37</v>
+      </c>
+      <c r="G109">
+        <v>14</v>
+      </c>
+      <c r="I109">
+        <v>7.6814755514716143E-2</v>
+      </c>
+      <c r="J109">
+        <v>-6.3068184167719241E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>14000</v>
+      </c>
+      <c r="D110">
+        <v>1500</v>
+      </c>
+      <c r="F110">
+        <v>37</v>
+      </c>
+      <c r="G110">
+        <v>14</v>
+      </c>
+      <c r="I110">
+        <v>7.6814755514716143E-2</v>
+      </c>
+      <c r="J110">
+        <v>-6.3068184167719241E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>16000</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>488.5</v>
+      </c>
+      <c r="F111">
+        <v>46</v>
+      </c>
+      <c r="G111">
+        <v>19</v>
+      </c>
+      <c r="H111">
+        <v>2864</v>
+      </c>
+      <c r="I111">
+        <v>0.19394509429885623</v>
+      </c>
+      <c r="J111">
+        <v>-0.15205228397258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>16000</v>
+      </c>
+      <c r="D112">
+        <v>500</v>
+      </c>
+      <c r="F112">
+        <v>46</v>
+      </c>
+      <c r="G112">
+        <v>19</v>
+      </c>
+      <c r="I112">
+        <v>0.19394509429885623</v>
+      </c>
+      <c r="J112">
+        <v>-0.15205228397258</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113">
+        <v>16000</v>
+      </c>
+      <c r="D113">
+        <v>1000</v>
+      </c>
+      <c r="F113">
+        <v>46</v>
+      </c>
+      <c r="G113">
+        <v>19</v>
+      </c>
+      <c r="I113">
+        <v>0.19394509429885623</v>
+      </c>
+      <c r="J113">
+        <v>-0.15205228397258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>16000</v>
+      </c>
+      <c r="D114">
+        <v>1500</v>
+      </c>
+      <c r="F114">
+        <v>46</v>
+      </c>
+      <c r="G114">
+        <v>19</v>
+      </c>
+      <c r="I114">
+        <v>0.19394509429885623</v>
+      </c>
+      <c r="J114">
+        <v>-0.15205228397258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>18000</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>667</v>
+      </c>
+      <c r="F115">
+        <v>60</v>
+      </c>
+      <c r="G115">
+        <v>28</v>
+      </c>
+      <c r="H115">
+        <v>4627</v>
+      </c>
+      <c r="I115">
+        <v>0.89691217535354784</v>
+      </c>
+      <c r="J115">
+        <v>-0.69661710093732965</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>18000</v>
+      </c>
+      <c r="D116">
+        <v>500</v>
+      </c>
+      <c r="F116">
+        <v>60</v>
+      </c>
+      <c r="G116">
+        <v>28</v>
+      </c>
+      <c r="I116">
+        <v>0.89691217535354784</v>
+      </c>
+      <c r="J116">
+        <v>-0.69661710093732965</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>18000</v>
+      </c>
+      <c r="D117">
+        <v>1000</v>
+      </c>
+      <c r="F117">
+        <v>60</v>
+      </c>
+      <c r="G117">
+        <v>28</v>
+      </c>
+      <c r="I117">
+        <v>0.89691217535354784</v>
+      </c>
+      <c r="J117">
+        <v>-0.69661710093732965</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>18000</v>
+      </c>
+      <c r="D118">
+        <v>1500</v>
+      </c>
+      <c r="F118">
+        <v>60</v>
+      </c>
+      <c r="G118">
+        <v>28</v>
+      </c>
+      <c r="I118">
+        <v>0.89691217535354784</v>
+      </c>
+      <c r="J118">
+        <v>-0.69661710093732965</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119">
+        <v>5000</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>51</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>71</v>
+      </c>
+      <c r="I119">
+        <v>9.4495831145960602E-4</v>
+      </c>
+      <c r="J119">
+        <v>6.932494762840974E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120">
+        <v>5000</v>
+      </c>
+      <c r="D120">
+        <v>500</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>9.4495831145960602E-4</v>
+      </c>
+      <c r="J120">
+        <v>6.932494762840974E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121">
+        <v>5000</v>
+      </c>
+      <c r="D121">
+        <v>1000</v>
+      </c>
+      <c r="F121">
+        <v>7</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>9.4495831145960602E-4</v>
+      </c>
+      <c r="J121">
+        <v>6.932494762840974E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>5000</v>
+      </c>
+      <c r="D122">
+        <v>1500</v>
+      </c>
+      <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>9.4495831145960602E-4</v>
+      </c>
+      <c r="J122">
+        <v>6.932494762840974E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <v>7000</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="F123">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>5</v>
+      </c>
+      <c r="H123">
+        <v>163</v>
+      </c>
+      <c r="I123">
+        <v>-6.2414619296639971E-4</v>
+      </c>
+      <c r="J123">
+        <v>2.9162926466526143E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124">
+        <v>7000</v>
+      </c>
+      <c r="D124">
+        <v>500</v>
+      </c>
+      <c r="F124">
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="I124">
+        <v>-6.2414619296639971E-4</v>
+      </c>
+      <c r="J124">
+        <v>2.9162926466526143E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>7000</v>
+      </c>
+      <c r="D125">
+        <v>1000</v>
+      </c>
+      <c r="F125">
+        <v>11</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="I125">
+        <v>-6.2414619296639971E-4</v>
+      </c>
+      <c r="J125">
+        <v>2.9162926466526143E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126">
+        <v>7000</v>
+      </c>
+      <c r="D126">
+        <v>1500</v>
+      </c>
+      <c r="F126">
+        <v>11</v>
+      </c>
+      <c r="G126">
+        <v>5</v>
+      </c>
+      <c r="I126">
+        <v>-6.2414619296639971E-4</v>
+      </c>
+      <c r="J126">
+        <v>2.9162926466526143E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>9000</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>116.6</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127">
+        <v>6</v>
+      </c>
+      <c r="H127">
+        <v>322</v>
+      </c>
+      <c r="I127">
+        <v>-1.1929026498954296E-3</v>
+      </c>
+      <c r="J127">
+        <v>1.0031903511401112E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>9000</v>
+      </c>
+      <c r="D128">
+        <v>500</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128">
+        <v>6</v>
+      </c>
+      <c r="I128">
+        <v>-1.1929026498954296E-3</v>
+      </c>
+      <c r="J128">
+        <v>1.0031903511401112E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>9000</v>
+      </c>
+      <c r="D129">
+        <v>1000</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129">
+        <v>6</v>
+      </c>
+      <c r="I129">
+        <v>-1.1929026498954296E-3</v>
+      </c>
+      <c r="J129">
+        <v>1.0031903511401112E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>9000</v>
+      </c>
+      <c r="D130">
+        <v>1500</v>
+      </c>
+      <c r="F130">
+        <v>16</v>
+      </c>
+      <c r="G130">
+        <v>6</v>
+      </c>
+      <c r="I130">
+        <v>-1.1929026498954296E-3</v>
+      </c>
+      <c r="J130">
+        <v>1.0031903511401112E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <v>11000</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="F131">
+        <v>21</v>
+      </c>
+      <c r="G131">
+        <v>8</v>
+      </c>
+      <c r="H131">
+        <v>581</v>
+      </c>
+      <c r="I131">
+        <v>-6.2250427179554686E-3</v>
+      </c>
+      <c r="J131">
+        <v>1.7026944427542295E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132">
+        <v>11000</v>
+      </c>
+      <c r="D132">
+        <v>500</v>
+      </c>
+      <c r="F132">
+        <v>21</v>
+      </c>
+      <c r="G132">
+        <v>8</v>
+      </c>
+      <c r="I132">
+        <v>-6.2250427179554686E-3</v>
+      </c>
+      <c r="J132">
+        <v>1.7026944427542295E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133">
+        <v>11000</v>
+      </c>
+      <c r="D133">
+        <v>1000</v>
+      </c>
+      <c r="F133">
+        <v>21</v>
+      </c>
+      <c r="G133">
+        <v>8</v>
+      </c>
+      <c r="I133">
+        <v>-6.2250427179554686E-3</v>
+      </c>
+      <c r="J133">
+        <v>1.7026944427542295E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134">
+        <v>11000</v>
+      </c>
+      <c r="D134">
+        <v>1500</v>
+      </c>
+      <c r="F134">
+        <v>21</v>
+      </c>
+      <c r="G134">
+        <v>8</v>
+      </c>
+      <c r="I134">
+        <v>-6.2250427179554686E-3</v>
+      </c>
+      <c r="J134">
+        <v>1.7026944427542295E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135">
+        <v>13000</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>220.9</v>
+      </c>
+      <c r="F135">
+        <v>27</v>
+      </c>
+      <c r="G135">
+        <v>11</v>
+      </c>
+      <c r="H135">
+        <v>980</v>
+      </c>
+      <c r="I135">
+        <v>-1.2841128665658631E-2</v>
+      </c>
+      <c r="J135">
+        <v>2.1351118935781784E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>13000</v>
+      </c>
+      <c r="D136">
+        <v>500</v>
+      </c>
+      <c r="F136">
+        <v>27</v>
+      </c>
+      <c r="G136">
+        <v>11</v>
+      </c>
+      <c r="I136">
+        <v>-1.2841128665658631E-2</v>
+      </c>
+      <c r="J136">
+        <v>2.1351118935781784E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137">
+        <v>13000</v>
+      </c>
+      <c r="D137">
+        <v>1000</v>
+      </c>
+      <c r="F137">
+        <v>27</v>
+      </c>
+      <c r="G137">
+        <v>11</v>
+      </c>
+      <c r="I137">
+        <v>-1.2841128665658631E-2</v>
+      </c>
+      <c r="J137">
+        <v>2.1351118935781784E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138">
+        <v>13000</v>
+      </c>
+      <c r="D138">
+        <v>1500</v>
+      </c>
+      <c r="F138">
+        <v>27</v>
+      </c>
+      <c r="G138">
+        <v>11</v>
+      </c>
+      <c r="I138">
+        <v>-1.2841128665658631E-2</v>
+      </c>
+      <c r="J138">
+        <v>2.1351118935781784E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139">
+        <v>15000</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>291.89999999999998</v>
+      </c>
+      <c r="F139">
+        <v>35</v>
+      </c>
+      <c r="G139">
+        <v>14</v>
+      </c>
+      <c r="H139">
+        <v>1562</v>
+      </c>
+      <c r="I139">
+        <v>-1.3212017069093401E-2</v>
+      </c>
+      <c r="J139">
+        <v>1.8121410018999518E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140">
+        <v>15000</v>
+      </c>
+      <c r="D140">
+        <v>500</v>
+      </c>
+      <c r="F140">
+        <v>35</v>
+      </c>
+      <c r="G140">
+        <v>14</v>
+      </c>
+      <c r="I140">
+        <v>-1.3212017069093401E-2</v>
+      </c>
+      <c r="J140">
+        <v>1.8121410018999518E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141">
+        <v>15000</v>
+      </c>
+      <c r="D141">
+        <v>1000</v>
+      </c>
+      <c r="F141">
+        <v>35</v>
+      </c>
+      <c r="G141">
+        <v>14</v>
+      </c>
+      <c r="I141">
+        <v>-1.3212017069093401E-2</v>
+      </c>
+      <c r="J141">
+        <v>1.8121410018999518E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142">
+        <v>15000</v>
+      </c>
+      <c r="D142">
+        <v>1500</v>
+      </c>
+      <c r="F142">
+        <v>35</v>
+      </c>
+      <c r="G142">
+        <v>14</v>
+      </c>
+      <c r="I142">
+        <v>-1.3212017069093401E-2</v>
+      </c>
+      <c r="J142">
+        <v>1.8121410018999518E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143">
+        <v>17000</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>377.2</v>
+      </c>
+      <c r="F143">
+        <v>42</v>
+      </c>
+      <c r="G143">
+        <v>17</v>
+      </c>
+      <c r="H143">
+        <v>2375</v>
+      </c>
+      <c r="I143">
+        <v>1.8178042781862257E-2</v>
+      </c>
+      <c r="J143">
+        <v>-1.4865994575688113E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144">
+        <v>17000</v>
+      </c>
+      <c r="D144">
+        <v>500</v>
+      </c>
+      <c r="F144">
+        <v>42</v>
+      </c>
+      <c r="G144">
+        <v>17</v>
+      </c>
+      <c r="I144">
+        <v>1.8178042781862257E-2</v>
+      </c>
+      <c r="J144">
+        <v>-1.4865994575688113E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145">
+        <v>17000</v>
+      </c>
+      <c r="D145">
+        <v>1000</v>
+      </c>
+      <c r="F145">
+        <v>42</v>
+      </c>
+      <c r="G145">
+        <v>17</v>
+      </c>
+      <c r="I145">
+        <v>1.8178042781862257E-2</v>
+      </c>
+      <c r="J145">
+        <v>-1.4865994575688113E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146">
+        <v>17000</v>
+      </c>
+      <c r="D146">
+        <v>1500</v>
+      </c>
+      <c r="F146">
+        <v>42</v>
+      </c>
+      <c r="G146">
+        <v>17</v>
+      </c>
+      <c r="I146">
+        <v>1.8178042781862257E-2</v>
+      </c>
+      <c r="J146">
+        <v>-1.4865994575688113E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147">
+        <v>19000</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>481.7</v>
+      </c>
+      <c r="F147">
+        <v>52</v>
+      </c>
+      <c r="G147">
+        <v>20</v>
+      </c>
+      <c r="H147">
+        <v>3507</v>
+      </c>
+      <c r="I147">
+        <v>9.4412375795279377E-2</v>
+      </c>
+      <c r="J147">
+        <v>-7.5757619389677344E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148">
+        <v>19000</v>
+      </c>
+      <c r="D148">
+        <v>500</v>
+      </c>
+      <c r="F148">
+        <v>52</v>
+      </c>
+      <c r="G148">
+        <v>20</v>
+      </c>
+      <c r="I148">
+        <v>9.4412375795279377E-2</v>
+      </c>
+      <c r="J148">
+        <v>-7.5757619389677344E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>19000</v>
+      </c>
+      <c r="D149">
+        <v>1000</v>
+      </c>
+      <c r="F149">
+        <v>52</v>
+      </c>
+      <c r="G149">
+        <v>20</v>
+      </c>
+      <c r="I149">
+        <v>9.4412375795279377E-2</v>
+      </c>
+      <c r="J149">
+        <v>-7.5757619389677344E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150">
+        <v>19000</v>
+      </c>
+      <c r="D150">
+        <v>1500</v>
+      </c>
+      <c r="F150">
+        <v>52</v>
+      </c>
+      <c r="G150">
+        <v>20</v>
+      </c>
+      <c r="I150">
+        <v>9.4412375795279377E-2</v>
+      </c>
+      <c r="J150">
+        <v>-7.5757619389677344E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>21000</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>624</v>
+      </c>
+      <c r="F151">
+        <v>64</v>
+      </c>
+      <c r="G151">
+        <v>26</v>
+      </c>
+      <c r="H151">
+        <v>5234</v>
+      </c>
+      <c r="I151">
+        <v>0.395158384848594</v>
+      </c>
+      <c r="J151">
+        <v>-0.34017677362303667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152">
+        <v>21000</v>
+      </c>
+      <c r="D152">
+        <v>500</v>
+      </c>
+      <c r="F152">
+        <v>64</v>
+      </c>
+      <c r="G152">
+        <v>26</v>
+      </c>
+      <c r="I152">
+        <v>0.395158384848594</v>
+      </c>
+      <c r="J152">
+        <v>-0.34017677362303667</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153">
+        <v>21000</v>
+      </c>
+      <c r="D153">
+        <v>1000</v>
+      </c>
+      <c r="F153">
+        <v>64</v>
+      </c>
+      <c r="G153">
+        <v>26</v>
+      </c>
+      <c r="I153">
+        <v>0.395158384848594</v>
+      </c>
+      <c r="J153">
+        <v>-0.34017677362303667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154">
+        <v>21000</v>
+      </c>
+      <c r="D154">
+        <v>1500</v>
+      </c>
+      <c r="F154">
+        <v>64</v>
+      </c>
+      <c r="G154">
+        <v>26</v>
+      </c>
+      <c r="I154">
+        <v>0.395158384848594</v>
+      </c>
+      <c r="J154">
+        <v>-0.34017677362303667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79847A28-372E-49B8-A09E-0640B8223929}">
+  <dimension ref="A1:J155"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J155"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>288.2</v>
+      </c>
+      <c r="C2">
+        <v>2500</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>105</v>
+      </c>
+      <c r="I2">
+        <v>2.5899818199726022E-2</v>
+      </c>
+      <c r="J2">
+        <v>-2.343371286751493E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>288.2</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>201</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>156</v>
+      </c>
+      <c r="I3">
+        <v>4.1157171740528541E-2</v>
+      </c>
+      <c r="J3">
+        <v>-3.8202137194434493E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>288.2</v>
+      </c>
+      <c r="C4">
+        <v>3001</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>200.2</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>655</v>
+      </c>
+      <c r="I4">
+        <v>4.1157171740528541E-2</v>
+      </c>
+      <c r="J4">
+        <v>-3.8202137194434493E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>288.2</v>
+      </c>
+      <c r="C5">
+        <v>3001</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>199.4</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1154</v>
+      </c>
+      <c r="I5">
+        <v>4.1157171740528541E-2</v>
+      </c>
+      <c r="J5">
+        <v>-3.8202137194434493E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>288.2</v>
+      </c>
+      <c r="C6">
+        <v>3001</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <v>198.3</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1653</v>
+      </c>
+      <c r="I6">
+        <v>4.1157171740528541E-2</v>
+      </c>
+      <c r="J6">
+        <v>-3.8202137194434493E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>288.2</v>
+      </c>
+      <c r="C7">
+        <v>4000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>301</v>
+      </c>
+      <c r="I7">
+        <v>8.9812986771225456E-2</v>
+      </c>
+      <c r="J7">
+        <v>-8.194430094616327E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>288.2</v>
+      </c>
+      <c r="C8">
+        <v>4002</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>281</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>798</v>
+      </c>
+      <c r="I8">
+        <v>8.9812986771225456E-2</v>
+      </c>
+      <c r="J8">
+        <v>-8.194430094616327E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>288.2</v>
+      </c>
+      <c r="C9">
+        <v>4002</v>
+      </c>
+      <c r="D9">
+        <v>750</v>
+      </c>
+      <c r="E9">
+        <v>280.2</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>1047</v>
+      </c>
+      <c r="I9">
+        <v>8.9812986771225456E-2</v>
+      </c>
+      <c r="J9">
+        <v>-8.194430094616327E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>288.2</v>
+      </c>
+      <c r="C10">
+        <v>4002</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>1296</v>
+      </c>
+      <c r="I10">
+        <v>8.9812986771225456E-2</v>
+      </c>
+      <c r="J10">
+        <v>-8.194430094616327E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>288.2</v>
+      </c>
+      <c r="C11">
+        <v>4002</v>
+      </c>
+      <c r="D11">
+        <v>1500</v>
+      </c>
+      <c r="E11">
+        <v>277.8</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>1793</v>
+      </c>
+      <c r="I11">
+        <v>8.9812986771225456E-2</v>
+      </c>
+      <c r="J11">
+        <v>-8.194430094616327E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>288.2</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>378.9</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>522</v>
+      </c>
+      <c r="I12">
+        <v>0.18442423053876511</v>
+      </c>
+      <c r="J12">
+        <v>-0.16804215266132622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>288.2</v>
+      </c>
+      <c r="C13">
+        <v>5002</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>375.9</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>1015</v>
+      </c>
+      <c r="I13">
+        <v>0.184424230538765</v>
+      </c>
+      <c r="J13">
+        <v>-0.16804215266132622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>288.2</v>
+      </c>
+      <c r="C14">
+        <v>5002</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>372.8</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>1509</v>
+      </c>
+      <c r="I14">
+        <v>0.184424230538765</v>
+      </c>
+      <c r="J14">
+        <v>-0.16804215266132622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>288.2</v>
+      </c>
+      <c r="C15">
+        <v>5002</v>
+      </c>
+      <c r="D15">
+        <v>1500</v>
+      </c>
+      <c r="E15">
+        <v>369.9</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>2003</v>
+      </c>
+      <c r="I15">
+        <v>0.184424230538765</v>
+      </c>
+      <c r="J15">
+        <v>-0.16804215266132622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>288.2</v>
+      </c>
+      <c r="C16">
+        <v>6000</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>505.5</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>878</v>
+      </c>
+      <c r="I16">
+        <v>0.49153409903441925</v>
+      </c>
+      <c r="J16">
+        <v>-0.38738217907549494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>288.2</v>
+      </c>
+      <c r="C17">
+        <v>6002</v>
+      </c>
+      <c r="D17">
+        <v>500</v>
+      </c>
+      <c r="E17">
+        <v>498.9</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>1363</v>
+      </c>
+      <c r="I17">
+        <v>0.49153409903441925</v>
+      </c>
+      <c r="J17">
+        <v>-0.38738217907549494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>288.2</v>
+      </c>
+      <c r="C18">
+        <v>6002</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>492.7</v>
+      </c>
+      <c r="F18">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>1847</v>
+      </c>
+      <c r="I18">
+        <v>0.49153409903441925</v>
+      </c>
+      <c r="J18">
+        <v>-0.38738217907549494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>288.2</v>
+      </c>
+      <c r="C19">
+        <v>6002</v>
+      </c>
+      <c r="D19">
+        <v>1500</v>
+      </c>
+      <c r="E19">
+        <v>487</v>
+      </c>
+      <c r="F19">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>2332</v>
+      </c>
+      <c r="I19">
+        <v>0.49153409903441925</v>
+      </c>
+      <c r="J19">
+        <v>-0.38738217907549494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>3000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>101.7</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>83</v>
+      </c>
+      <c r="I20">
+        <v>7.6667802181275115E-3</v>
+      </c>
+      <c r="J20">
+        <v>-2.7417226413038189E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>3000</v>
+      </c>
+      <c r="D21">
+        <v>500</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>7.6667802181275115E-3</v>
+      </c>
+      <c r="J21">
+        <v>-2.7417226413038189E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>3000</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>7.6667802181275115E-3</v>
+      </c>
+      <c r="J22">
+        <v>-2.7417226413038189E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>3000</v>
+      </c>
+      <c r="D23">
+        <v>1500</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>7.6667802181275115E-3</v>
+      </c>
+      <c r="J23">
+        <v>-2.7417226413038189E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>4000</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>145.1</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>161</v>
+      </c>
+      <c r="I24">
+        <v>1.5060471433127446E-2</v>
+      </c>
+      <c r="J24">
+        <v>-9.8146808830853697E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>4000</v>
+      </c>
+      <c r="D25">
+        <v>500</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>1.5060471433127446E-2</v>
+      </c>
+      <c r="J25">
+        <v>-9.8146808830853697E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>4000</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>1.5060471433127446E-2</v>
+      </c>
+      <c r="J26">
+        <v>-9.8146808830853697E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>4000</v>
+      </c>
+      <c r="D27">
+        <v>1500</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>1.5060471433127446E-2</v>
+      </c>
+      <c r="J27">
+        <v>-9.8146808830853697E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>5000</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>193.3</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>274</v>
+      </c>
+      <c r="I28">
+        <v>2.3879867339872851E-2</v>
+      </c>
+      <c r="J28">
+        <v>-2.0603451764385446E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+      <c r="D29">
+        <v>500</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>2.3879867339872851E-2</v>
+      </c>
+      <c r="J29">
+        <v>-2.0603451764385446E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>5000</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>2.3879867339872851E-2</v>
+      </c>
+      <c r="J30">
+        <v>-2.0603451764385446E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>5000</v>
+      </c>
+      <c r="D31">
+        <v>1500</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>2.3879867339872851E-2</v>
+      </c>
+      <c r="J31">
+        <v>-2.0603451764385446E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>6000</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>246.2</v>
+      </c>
+      <c r="F32">
+        <v>18</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>426</v>
+      </c>
+      <c r="I32">
+        <v>4.5449460719777471E-2</v>
+      </c>
+      <c r="J32">
+        <v>-3.3658677328201145E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>6000</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>4.5449460719777471E-2</v>
+      </c>
+      <c r="J33">
+        <v>-3.3658677328201145E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>6000</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+      <c r="F34">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>4.5449460719777471E-2</v>
+      </c>
+      <c r="J34">
+        <v>-3.3658677328201145E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>6000</v>
+      </c>
+      <c r="D35">
+        <v>1500</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>4.5449460719777471E-2</v>
+      </c>
+      <c r="J35">
+        <v>-3.3658677328201145E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>7000</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>304.7</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>626</v>
+      </c>
+      <c r="I36">
+        <v>6.8140247417609615E-2</v>
+      </c>
+      <c r="J36">
+        <v>-5.8971661602865412E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>7000</v>
+      </c>
+      <c r="D37">
+        <v>500</v>
+      </c>
+      <c r="F37">
+        <v>22</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>6.8140247417609615E-2</v>
+      </c>
+      <c r="J37">
+        <v>-5.8971661602865412E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>7000</v>
+      </c>
+      <c r="D38">
+        <v>1000</v>
+      </c>
+      <c r="F38">
+        <v>22</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>6.8140247417609615E-2</v>
+      </c>
+      <c r="J38">
+        <v>-5.8971661602865412E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>7000</v>
+      </c>
+      <c r="D39">
+        <v>1500</v>
+      </c>
+      <c r="F39">
+        <v>22</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>6.8140247417609615E-2</v>
+      </c>
+      <c r="J39">
+        <v>-5.8971661602865412E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>8000</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>370.1</v>
+      </c>
+      <c r="F40">
+        <v>26</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>884</v>
+      </c>
+      <c r="I40">
+        <v>0.11054953557288512</v>
+      </c>
+      <c r="J40">
+        <v>-0.10007265316182075</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>8000</v>
+      </c>
+      <c r="D41">
+        <v>500</v>
+      </c>
+      <c r="F41">
+        <v>26</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>0.11054953557288512</v>
+      </c>
+      <c r="J41">
+        <v>-0.10007265316182075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>8000</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+      <c r="F42">
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>0.11054953557288512</v>
+      </c>
+      <c r="J42">
+        <v>-0.10007265316182075</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>8000</v>
+      </c>
+      <c r="D43">
+        <v>1500</v>
+      </c>
+      <c r="F43">
+        <v>26</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>0.11054953557288512</v>
+      </c>
+      <c r="J43">
+        <v>-0.10007265316182075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>9000</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>446.3</v>
+      </c>
+      <c r="F44">
+        <v>31</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="H44">
+        <v>1226</v>
+      </c>
+      <c r="I44">
+        <v>0.19031878268271962</v>
+      </c>
+      <c r="J44">
+        <v>-0.19031878268272129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>9000</v>
+      </c>
+      <c r="D45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>31</v>
+      </c>
+      <c r="G45">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>0.19031878268271962</v>
+      </c>
+      <c r="J45">
+        <v>-0.19031878268272129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>9000</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <v>31</v>
+      </c>
+      <c r="G46">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>0.19031878268271962</v>
+      </c>
+      <c r="J46">
+        <v>-0.19031878268272129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>9000</v>
+      </c>
+      <c r="D47">
+        <v>1500</v>
+      </c>
+      <c r="F47">
+        <v>31</v>
+      </c>
+      <c r="G47">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>0.19031878268271962</v>
+      </c>
+      <c r="J47">
+        <v>-0.19031878268272129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>10000</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="F48">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48">
+        <v>1708</v>
+      </c>
+      <c r="I48">
+        <v>0.44032849826147868</v>
+      </c>
+      <c r="J48">
+        <v>-0.37158554720809106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>10000</v>
+      </c>
+      <c r="D49">
+        <v>500</v>
+      </c>
+      <c r="F49">
+        <v>36</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>0.44032849826147868</v>
+      </c>
+      <c r="J49">
+        <v>-0.37158554720809106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50">
+        <v>1000</v>
+      </c>
+      <c r="F50">
+        <v>36</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>0.44032849826147868</v>
+      </c>
+      <c r="J50">
+        <v>-0.37158554720809106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>10000</v>
+      </c>
+      <c r="D51">
+        <v>1500</v>
+      </c>
+      <c r="F51">
+        <v>36</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>0.44032849826147868</v>
+      </c>
+      <c r="J51">
+        <v>-0.37158554720809106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>4000</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>87</v>
+      </c>
+      <c r="I52">
+        <v>3.2574426955328671E-3</v>
+      </c>
+      <c r="J52">
+        <v>-1.945995058022255E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>4000</v>
+      </c>
+      <c r="D53">
+        <v>500</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>3.2574426955328671E-3</v>
+      </c>
+      <c r="J53">
+        <v>-1.945995058022255E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>4000</v>
+      </c>
+      <c r="D54">
+        <v>1000</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>3.2574426955328671E-3</v>
+      </c>
+      <c r="J54">
+        <v>-1.945995058022255E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>4000</v>
+      </c>
+      <c r="D55">
+        <v>1500</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>3.2574426955328671E-3</v>
+      </c>
+      <c r="J55">
+        <v>-1.945995058022255E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>5000</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>106</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>151</v>
+      </c>
+      <c r="I56">
+        <v>5.8595816746911823E-3</v>
+      </c>
+      <c r="J56">
+        <v>-9.4495831145972246E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>5000</v>
+      </c>
+      <c r="D57">
+        <v>500</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>5.8595816746911823E-3</v>
+      </c>
+      <c r="J57">
+        <v>-9.4495831145972246E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>5000</v>
+      </c>
+      <c r="D58">
+        <v>1000</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>5.8595816746911823E-3</v>
+      </c>
+      <c r="J58">
+        <v>-9.4495831145972246E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>5000</v>
+      </c>
+      <c r="D59">
+        <v>1500</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>5.8595816746911823E-3</v>
+      </c>
+      <c r="J59">
+        <v>-9.4495831145972246E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>7000</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>172.2</v>
+      </c>
+      <c r="F60">
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>366</v>
+      </c>
+      <c r="I60">
+        <v>1.0836586075463207E-2</v>
+      </c>
+      <c r="J60">
+        <v>-8.5444396217768306E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>7000</v>
+      </c>
+      <c r="D61">
+        <v>500</v>
+      </c>
+      <c r="F61">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>1.0836586075463207E-2</v>
+      </c>
+      <c r="J61">
+        <v>-8.5444396217768306E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>7000</v>
+      </c>
+      <c r="D62">
+        <v>1000</v>
+      </c>
+      <c r="F62">
+        <v>17</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>1.0836586075463207E-2</v>
+      </c>
+      <c r="J62">
+        <v>-8.5444396217768306E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>7000</v>
+      </c>
+      <c r="D63">
+        <v>1500</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>1.0836586075463207E-2</v>
+      </c>
+      <c r="J63">
+        <v>-8.5444396217768306E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>8000</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>211.9</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="H64">
+        <v>529</v>
+      </c>
+      <c r="I64">
+        <v>1.8876814476067462E-2</v>
+      </c>
+      <c r="J64">
+        <v>-1.6257593873301373E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>8000</v>
+      </c>
+      <c r="D65">
+        <v>500</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="I65">
+        <v>1.8876814476067462E-2</v>
+      </c>
+      <c r="J65">
+        <v>-1.6257593873301373E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>8000</v>
+      </c>
+      <c r="D66">
+        <v>1000</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>1.8876814476067462E-2</v>
+      </c>
+      <c r="J66">
+        <v>-1.6257593873301373E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>8000</v>
+      </c>
+      <c r="D67">
+        <v>1500</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>1.8876814476067462E-2</v>
+      </c>
+      <c r="J67">
+        <v>-1.6257593873301373E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>9000</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="F68">
+        <v>24</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>736</v>
+      </c>
+      <c r="I68">
+        <v>3.4163100796124793E-2</v>
+      </c>
+      <c r="J68">
+        <v>-2.5324099934620783E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>9000</v>
+      </c>
+      <c r="D69">
+        <v>500</v>
+      </c>
+      <c r="F69">
+        <v>24</v>
+      </c>
+      <c r="G69">
+        <v>9</v>
+      </c>
+      <c r="I69">
+        <v>3.4163100796124793E-2</v>
+      </c>
+      <c r="J69">
+        <v>-2.5324099934620783E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>9000</v>
+      </c>
+      <c r="D70">
+        <v>1000</v>
+      </c>
+      <c r="F70">
+        <v>24</v>
+      </c>
+      <c r="G70">
+        <v>9</v>
+      </c>
+      <c r="I70">
+        <v>3.4163100796124793E-2</v>
+      </c>
+      <c r="J70">
+        <v>-2.5324099934620783E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>9000</v>
+      </c>
+      <c r="D71">
+        <v>1500</v>
+      </c>
+      <c r="F71">
+        <v>24</v>
+      </c>
+      <c r="G71">
+        <v>9</v>
+      </c>
+      <c r="I71">
+        <v>3.4163100796124793E-2</v>
+      </c>
+      <c r="J71">
+        <v>-2.5324099934620783E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>10000</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="F72">
+        <v>27</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>994</v>
+      </c>
+      <c r="I72">
+        <v>5.4058582818627202E-2</v>
+      </c>
+      <c r="J72">
+        <v>-4.4238161239573158E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>10000</v>
+      </c>
+      <c r="D73">
+        <v>500</v>
+      </c>
+      <c r="F73">
+        <v>27</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <v>5.4058582818627202E-2</v>
+      </c>
+      <c r="J73">
+        <v>-4.4238161239573158E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>10000</v>
+      </c>
+      <c r="D74">
+        <v>1000</v>
+      </c>
+      <c r="F74">
+        <v>27</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <v>5.4058582818627202E-2</v>
+      </c>
+      <c r="J74">
+        <v>-4.4238161239573158E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>10000</v>
+      </c>
+      <c r="D75">
+        <v>1500</v>
+      </c>
+      <c r="F75">
+        <v>27</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="I75">
+        <v>5.4058582818627202E-2</v>
+      </c>
+      <c r="J75">
+        <v>-4.4238161239573158E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>12000</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>420.6</v>
+      </c>
+      <c r="F76">
+        <v>36</v>
+      </c>
+      <c r="G76">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>1702</v>
+      </c>
+      <c r="I76">
+        <v>0.13120893548428586</v>
+      </c>
+      <c r="J76">
+        <v>-0.11549770026922944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>12000</v>
+      </c>
+      <c r="D77">
+        <v>500</v>
+      </c>
+      <c r="F77">
+        <v>36</v>
+      </c>
+      <c r="G77">
+        <v>15</v>
+      </c>
+      <c r="I77">
+        <v>0.13120893548428586</v>
+      </c>
+      <c r="J77">
+        <v>-0.11549770026922944</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>12000</v>
+      </c>
+      <c r="D78">
+        <v>1000</v>
+      </c>
+      <c r="F78">
+        <v>36</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="I78">
+        <v>0.13120893548428586</v>
+      </c>
+      <c r="J78">
+        <v>-0.11549770026922944</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>12000</v>
+      </c>
+      <c r="D79">
+        <v>1500</v>
+      </c>
+      <c r="F79">
+        <v>36</v>
+      </c>
+      <c r="G79">
+        <v>15</v>
+      </c>
+      <c r="I79">
+        <v>0.13120893548428586</v>
+      </c>
+      <c r="J79">
+        <v>-0.11549770026922944</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>13000</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>490</v>
+      </c>
+      <c r="F80">
+        <v>41</v>
+      </c>
+      <c r="G80">
+        <v>17</v>
+      </c>
+      <c r="H80">
+        <v>2191</v>
+      </c>
+      <c r="I80">
+        <v>0.26798855024841994</v>
+      </c>
+      <c r="J80">
+        <v>-0.15735867673681411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>13000</v>
+      </c>
+      <c r="D81">
+        <v>500</v>
+      </c>
+      <c r="F81">
+        <v>41</v>
+      </c>
+      <c r="G81">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>0.26798855024841994</v>
+      </c>
+      <c r="J81">
+        <v>-0.15735867673681411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>13000</v>
+      </c>
+      <c r="D82">
+        <v>1000</v>
+      </c>
+      <c r="F82">
+        <v>41</v>
+      </c>
+      <c r="G82">
+        <v>17</v>
+      </c>
+      <c r="I82">
+        <v>0.26798855024841994</v>
+      </c>
+      <c r="J82">
+        <v>-0.15735867673681411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>13000</v>
+      </c>
+      <c r="D83">
+        <v>1500</v>
+      </c>
+      <c r="F83">
+        <v>41</v>
+      </c>
+      <c r="G83">
+        <v>17</v>
+      </c>
+      <c r="I83">
+        <v>0.26798855024841994</v>
+      </c>
+      <c r="J83">
+        <v>-0.15735867673681411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>14000</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>577.9</v>
+      </c>
+      <c r="F84">
+        <v>47</v>
+      </c>
+      <c r="G84">
+        <v>21</v>
+      </c>
+      <c r="H84">
+        <v>2847</v>
+      </c>
+      <c r="I84">
+        <v>0.47088313412861332</v>
+      </c>
+      <c r="J84">
+        <v>-0.38840370604663194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>14000</v>
+      </c>
+      <c r="D85">
+        <v>500</v>
+      </c>
+      <c r="F85">
+        <v>47</v>
+      </c>
+      <c r="G85">
+        <v>21</v>
+      </c>
+      <c r="I85">
+        <v>0.47088313412861332</v>
+      </c>
+      <c r="J85">
+        <v>-0.38840370604663194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>14000</v>
+      </c>
+      <c r="D86">
+        <v>1000</v>
+      </c>
+      <c r="F86">
+        <v>47</v>
+      </c>
+      <c r="G86">
+        <v>21</v>
+      </c>
+      <c r="I86">
+        <v>0.47088313412861332</v>
+      </c>
+      <c r="J86">
+        <v>-0.38840370604663194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87">
+        <v>14000</v>
+      </c>
+      <c r="D87">
+        <v>1500</v>
+      </c>
+      <c r="F87">
+        <v>47</v>
+      </c>
+      <c r="G87">
+        <v>21</v>
+      </c>
+      <c r="I87">
+        <v>0.47088313412861332</v>
+      </c>
+      <c r="J87">
+        <v>-0.38840370604663194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>4000</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>53</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>58</v>
+      </c>
+      <c r="I88">
+        <v>6.3454742051201546E-4</v>
+      </c>
+      <c r="J88">
+        <v>-1.9459950580224413E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>4000</v>
+      </c>
+      <c r="D89">
+        <v>500</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>6.3454742051201546E-4</v>
+      </c>
+      <c r="J89">
+        <v>-1.9459950580224413E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>4000</v>
+      </c>
+      <c r="D90">
+        <v>1000</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>6.3454742051201546E-4</v>
+      </c>
+      <c r="J90">
+        <v>-1.9459950580224413E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>4000</v>
+      </c>
+      <c r="D91">
+        <v>1500</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>6.3454742051201546E-4</v>
+      </c>
+      <c r="J91">
+        <v>-1.9459950580224413E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>6000</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>89.5</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="H92">
+        <v>154</v>
+      </c>
+      <c r="I92">
+        <v>8.1119799797858601E-3</v>
+      </c>
+      <c r="J92">
+        <v>1.7136728465281196E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>6000</v>
+      </c>
+      <c r="D93">
+        <v>500</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>8.1119799797858601E-3</v>
+      </c>
+      <c r="J93">
+        <v>1.7136728465281196E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>6000</v>
+      </c>
+      <c r="D94">
+        <v>1000</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>8.1119799797858601E-3</v>
+      </c>
+      <c r="J94">
+        <v>1.7136728465281196E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>6000</v>
+      </c>
+      <c r="D95">
+        <v>1500</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>8.1119799797858601E-3</v>
+      </c>
+      <c r="J95">
+        <v>1.7136728465281196E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96">
+        <v>8000</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>136.5</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="H96">
+        <v>332</v>
+      </c>
+      <c r="I96">
+        <v>1.1019152667768446E-2</v>
+      </c>
+      <c r="J96">
+        <v>-5.4227025670370937E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>8000</v>
+      </c>
+      <c r="D97">
+        <v>500</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>1.1019152667768446E-2</v>
+      </c>
+      <c r="J97">
+        <v>-5.4227025670370937E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>8000</v>
+      </c>
+      <c r="D98">
+        <v>1000</v>
+      </c>
+      <c r="F98">
+        <v>16</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>1.1019152667768446E-2</v>
+      </c>
+      <c r="J98">
+        <v>-5.4227025670370937E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>8000</v>
+      </c>
+      <c r="D99">
+        <v>1500</v>
+      </c>
+      <c r="F99">
+        <v>16</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="I99">
+        <v>1.1019152667768446E-2</v>
+      </c>
+      <c r="J99">
+        <v>-5.4227025670370937E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>10000</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>197.3</v>
+      </c>
+      <c r="F100">
+        <v>22</v>
+      </c>
+      <c r="G100">
+        <v>8</v>
+      </c>
+      <c r="H100">
+        <v>637</v>
+      </c>
+      <c r="I100">
+        <v>1.1503422642719509E-2</v>
+      </c>
+      <c r="J100">
+        <v>-4.9564749233504532E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>10000</v>
+      </c>
+      <c r="D101">
+        <v>500</v>
+      </c>
+      <c r="F101">
+        <v>22</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+      <c r="I101">
+        <v>1.1503422642719509E-2</v>
+      </c>
+      <c r="J101">
+        <v>-4.9564749233504532E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102">
+        <v>10000</v>
+      </c>
+      <c r="D102">
+        <v>1000</v>
+      </c>
+      <c r="F102">
+        <v>22</v>
+      </c>
+      <c r="G102">
+        <v>8</v>
+      </c>
+      <c r="I102">
+        <v>1.1503422642719509E-2</v>
+      </c>
+      <c r="J102">
+        <v>-4.9564749233504532E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>10000</v>
+      </c>
+      <c r="D103">
+        <v>1500</v>
+      </c>
+      <c r="F103">
+        <v>22</v>
+      </c>
+      <c r="G103">
+        <v>8</v>
+      </c>
+      <c r="I103">
+        <v>1.1503422642719509E-2</v>
+      </c>
+      <c r="J103">
+        <v>-4.9564749233504532E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>12000</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>274</v>
+      </c>
+      <c r="F104">
+        <v>29</v>
+      </c>
+      <c r="G104">
+        <v>10</v>
+      </c>
+      <c r="H104">
+        <v>1116</v>
+      </c>
+      <c r="I104">
+        <v>3.3013715390165906E-2</v>
+      </c>
+      <c r="J104">
+        <v>-2.5158097782635457E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>12000</v>
+      </c>
+      <c r="D105">
+        <v>500</v>
+      </c>
+      <c r="F105">
+        <v>29</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+      <c r="I105">
+        <v>3.3013715390165906E-2</v>
+      </c>
+      <c r="J105">
+        <v>-2.5158097782635457E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>12000</v>
+      </c>
+      <c r="D106">
+        <v>1000</v>
+      </c>
+      <c r="F106">
+        <v>29</v>
+      </c>
+      <c r="G106">
+        <v>10</v>
+      </c>
+      <c r="I106">
+        <v>3.3013715390165906E-2</v>
+      </c>
+      <c r="J106">
+        <v>-2.5158097782635457E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>12000</v>
+      </c>
+      <c r="D107">
+        <v>1500</v>
+      </c>
+      <c r="F107">
+        <v>29</v>
+      </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
+      <c r="I107">
+        <v>3.3013715390165906E-2</v>
+      </c>
+      <c r="J107">
+        <v>-2.5158097782635457E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>14000</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>368.8</v>
+      </c>
+      <c r="F108">
+        <v>37</v>
+      </c>
+      <c r="G108">
+        <v>14</v>
+      </c>
+      <c r="H108">
+        <v>1825</v>
+      </c>
+      <c r="I108">
+        <v>7.6814755514716143E-2</v>
+      </c>
+      <c r="J108">
+        <v>-6.3068184167719241E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>14000</v>
+      </c>
+      <c r="D109">
+        <v>500</v>
+      </c>
+      <c r="F109">
+        <v>37</v>
+      </c>
+      <c r="G109">
+        <v>14</v>
+      </c>
+      <c r="I109">
+        <v>7.6814755514716143E-2</v>
+      </c>
+      <c r="J109">
+        <v>-6.3068184167719241E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>14000</v>
+      </c>
+      <c r="D110">
+        <v>1000</v>
+      </c>
+      <c r="F110">
+        <v>37</v>
+      </c>
+      <c r="G110">
+        <v>14</v>
+      </c>
+      <c r="I110">
+        <v>7.6814755514716143E-2</v>
+      </c>
+      <c r="J110">
+        <v>-6.3068184167719241E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>14000</v>
+      </c>
+      <c r="D111">
+        <v>1500</v>
+      </c>
+      <c r="F111">
+        <v>37</v>
+      </c>
+      <c r="G111">
+        <v>14</v>
+      </c>
+      <c r="I111">
+        <v>7.6814755514716143E-2</v>
+      </c>
+      <c r="J111">
+        <v>-6.3068184167719241E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>16000</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>488.5</v>
+      </c>
+      <c r="F112">
+        <v>46</v>
+      </c>
+      <c r="G112">
+        <v>19</v>
+      </c>
+      <c r="H112">
+        <v>2864</v>
+      </c>
+      <c r="I112">
+        <v>0.19394509429885623</v>
+      </c>
+      <c r="J112">
+        <v>-0.15205228397258</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113">
+        <v>16000</v>
+      </c>
+      <c r="D113">
+        <v>500</v>
+      </c>
+      <c r="F113">
+        <v>46</v>
+      </c>
+      <c r="G113">
+        <v>19</v>
+      </c>
+      <c r="I113">
+        <v>0.19394509429885623</v>
+      </c>
+      <c r="J113">
+        <v>-0.15205228397258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>16000</v>
+      </c>
+      <c r="D114">
+        <v>1000</v>
+      </c>
+      <c r="F114">
+        <v>46</v>
+      </c>
+      <c r="G114">
+        <v>19</v>
+      </c>
+      <c r="I114">
+        <v>0.19394509429885623</v>
+      </c>
+      <c r="J114">
+        <v>-0.15205228397258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>16000</v>
+      </c>
+      <c r="D115">
+        <v>1500</v>
+      </c>
+      <c r="F115">
+        <v>46</v>
+      </c>
+      <c r="G115">
+        <v>19</v>
+      </c>
+      <c r="I115">
+        <v>0.19394509429885623</v>
+      </c>
+      <c r="J115">
+        <v>-0.15205228397258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>18000</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>667</v>
+      </c>
+      <c r="F116">
+        <v>60</v>
+      </c>
+      <c r="G116">
+        <v>28</v>
+      </c>
+      <c r="H116">
+        <v>4627</v>
+      </c>
+      <c r="I116">
+        <v>0.89691217535354784</v>
+      </c>
+      <c r="J116">
+        <v>-0.69661710093732965</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>18000</v>
+      </c>
+      <c r="D117">
+        <v>500</v>
+      </c>
+      <c r="F117">
+        <v>60</v>
+      </c>
+      <c r="G117">
+        <v>28</v>
+      </c>
+      <c r="I117">
+        <v>0.89691217535354784</v>
+      </c>
+      <c r="J117">
+        <v>-0.69661710093732965</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>18000</v>
+      </c>
+      <c r="D118">
+        <v>1000</v>
+      </c>
+      <c r="F118">
+        <v>60</v>
+      </c>
+      <c r="G118">
+        <v>28</v>
+      </c>
+      <c r="I118">
+        <v>0.89691217535354784</v>
+      </c>
+      <c r="J118">
+        <v>-0.69661710093732965</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>18000</v>
+      </c>
+      <c r="D119">
+        <v>1500</v>
+      </c>
+      <c r="F119">
+        <v>60</v>
+      </c>
+      <c r="G119">
+        <v>28</v>
+      </c>
+      <c r="I119">
+        <v>0.89691217535354784</v>
+      </c>
+      <c r="J119">
+        <v>-0.69661710093732965</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120">
+        <v>5000</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>51</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>71</v>
+      </c>
+      <c r="I120">
+        <v>9.4495831145960602E-4</v>
+      </c>
+      <c r="J120">
+        <v>6.932494762840974E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121">
+        <v>5000</v>
+      </c>
+      <c r="D121">
+        <v>500</v>
+      </c>
+      <c r="F121">
+        <v>7</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>9.4495831145960602E-4</v>
+      </c>
+      <c r="J121">
+        <v>6.932494762840974E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>5000</v>
+      </c>
+      <c r="D122">
+        <v>1000</v>
+      </c>
+      <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>9.4495831145960602E-4</v>
+      </c>
+      <c r="J122">
+        <v>6.932494762840974E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <v>5000</v>
+      </c>
+      <c r="D123">
+        <v>1500</v>
+      </c>
+      <c r="F123">
+        <v>7</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="I123">
+        <v>9.4495831145960602E-4</v>
+      </c>
+      <c r="J123">
+        <v>6.932494762840974E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124">
+        <v>7000</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="F124">
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>163</v>
+      </c>
+      <c r="I124">
+        <v>-6.2414619296639971E-4</v>
+      </c>
+      <c r="J124">
+        <v>2.9162926466526143E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>7000</v>
+      </c>
+      <c r="D125">
+        <v>500</v>
+      </c>
+      <c r="F125">
+        <v>11</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="I125">
+        <v>-6.2414619296639971E-4</v>
+      </c>
+      <c r="J125">
+        <v>2.9162926466526143E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126">
+        <v>7000</v>
+      </c>
+      <c r="D126">
+        <v>1000</v>
+      </c>
+      <c r="F126">
+        <v>11</v>
+      </c>
+      <c r="G126">
+        <v>5</v>
+      </c>
+      <c r="I126">
+        <v>-6.2414619296639971E-4</v>
+      </c>
+      <c r="J126">
+        <v>2.9162926466526143E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>7000</v>
+      </c>
+      <c r="D127">
+        <v>1500</v>
+      </c>
+      <c r="F127">
+        <v>11</v>
+      </c>
+      <c r="G127">
+        <v>5</v>
+      </c>
+      <c r="I127">
+        <v>-6.2414619296639971E-4</v>
+      </c>
+      <c r="J127">
+        <v>2.9162926466526143E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>9000</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>116.6</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128">
+        <v>6</v>
+      </c>
+      <c r="H128">
+        <v>322</v>
+      </c>
+      <c r="I128">
+        <v>-1.1929026498954296E-3</v>
+      </c>
+      <c r="J128">
+        <v>1.0031903511401112E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>9000</v>
+      </c>
+      <c r="D129">
+        <v>500</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129">
+        <v>6</v>
+      </c>
+      <c r="I129">
+        <v>-1.1929026498954296E-3</v>
+      </c>
+      <c r="J129">
+        <v>1.0031903511401112E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>9000</v>
+      </c>
+      <c r="D130">
+        <v>1000</v>
+      </c>
+      <c r="F130">
+        <v>16</v>
+      </c>
+      <c r="G130">
+        <v>6</v>
+      </c>
+      <c r="I130">
+        <v>-1.1929026498954296E-3</v>
+      </c>
+      <c r="J130">
+        <v>1.0031903511401112E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <v>9000</v>
+      </c>
+      <c r="D131">
+        <v>1500</v>
+      </c>
+      <c r="F131">
+        <v>16</v>
+      </c>
+      <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="I131">
+        <v>-1.1929026498954296E-3</v>
+      </c>
+      <c r="J131">
+        <v>1.0031903511401112E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132">
+        <v>11000</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="F132">
+        <v>21</v>
+      </c>
+      <c r="G132">
+        <v>8</v>
+      </c>
+      <c r="H132">
+        <v>581</v>
+      </c>
+      <c r="I132">
+        <v>-6.2250427179554686E-3</v>
+      </c>
+      <c r="J132">
+        <v>1.7026944427542295E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133">
+        <v>11000</v>
+      </c>
+      <c r="D133">
+        <v>500</v>
+      </c>
+      <c r="F133">
+        <v>21</v>
+      </c>
+      <c r="G133">
+        <v>8</v>
+      </c>
+      <c r="I133">
+        <v>-6.2250427179554686E-3</v>
+      </c>
+      <c r="J133">
+        <v>1.7026944427542295E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134">
+        <v>11000</v>
+      </c>
+      <c r="D134">
+        <v>1000</v>
+      </c>
+      <c r="F134">
+        <v>21</v>
+      </c>
+      <c r="G134">
+        <v>8</v>
+      </c>
+      <c r="I134">
+        <v>-6.2250427179554686E-3</v>
+      </c>
+      <c r="J134">
+        <v>1.7026944427542295E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135">
+        <v>11000</v>
+      </c>
+      <c r="D135">
+        <v>1500</v>
+      </c>
+      <c r="F135">
+        <v>21</v>
+      </c>
+      <c r="G135">
+        <v>8</v>
+      </c>
+      <c r="I135">
+        <v>-6.2250427179554686E-3</v>
+      </c>
+      <c r="J135">
+        <v>1.7026944427542295E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>13000</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>220.9</v>
+      </c>
+      <c r="F136">
+        <v>27</v>
+      </c>
+      <c r="G136">
+        <v>11</v>
+      </c>
+      <c r="H136">
+        <v>980</v>
+      </c>
+      <c r="I136">
+        <v>-1.2841128665658631E-2</v>
+      </c>
+      <c r="J136">
+        <v>2.1351118935781784E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137">
+        <v>13000</v>
+      </c>
+      <c r="D137">
+        <v>500</v>
+      </c>
+      <c r="F137">
+        <v>27</v>
+      </c>
+      <c r="G137">
+        <v>11</v>
+      </c>
+      <c r="I137">
+        <v>-1.2841128665658631E-2</v>
+      </c>
+      <c r="J137">
+        <v>2.1351118935781784E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138">
+        <v>13000</v>
+      </c>
+      <c r="D138">
+        <v>1000</v>
+      </c>
+      <c r="F138">
+        <v>27</v>
+      </c>
+      <c r="G138">
+        <v>11</v>
+      </c>
+      <c r="I138">
+        <v>-1.2841128665658631E-2</v>
+      </c>
+      <c r="J138">
+        <v>2.1351118935781784E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139">
+        <v>13000</v>
+      </c>
+      <c r="D139">
+        <v>1500</v>
+      </c>
+      <c r="F139">
+        <v>27</v>
+      </c>
+      <c r="G139">
+        <v>11</v>
+      </c>
+      <c r="I139">
+        <v>-1.2841128665658631E-2</v>
+      </c>
+      <c r="J139">
+        <v>2.1351118935781784E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140">
+        <v>15000</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>291.89999999999998</v>
+      </c>
+      <c r="F140">
+        <v>35</v>
+      </c>
+      <c r="G140">
+        <v>14</v>
+      </c>
+      <c r="H140">
+        <v>1562</v>
+      </c>
+      <c r="I140">
+        <v>-1.3212017069093401E-2</v>
+      </c>
+      <c r="J140">
+        <v>1.8121410018999518E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141">
+        <v>15000</v>
+      </c>
+      <c r="D141">
+        <v>500</v>
+      </c>
+      <c r="F141">
+        <v>35</v>
+      </c>
+      <c r="G141">
+        <v>14</v>
+      </c>
+      <c r="I141">
+        <v>-1.3212017069093401E-2</v>
+      </c>
+      <c r="J141">
+        <v>1.8121410018999518E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142">
+        <v>15000</v>
+      </c>
+      <c r="D142">
+        <v>1000</v>
+      </c>
+      <c r="F142">
+        <v>35</v>
+      </c>
+      <c r="G142">
+        <v>14</v>
+      </c>
+      <c r="I142">
+        <v>-1.3212017069093401E-2</v>
+      </c>
+      <c r="J142">
+        <v>1.8121410018999518E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143">
+        <v>15000</v>
+      </c>
+      <c r="D143">
+        <v>1500</v>
+      </c>
+      <c r="F143">
+        <v>35</v>
+      </c>
+      <c r="G143">
+        <v>14</v>
+      </c>
+      <c r="I143">
+        <v>-1.3212017069093401E-2</v>
+      </c>
+      <c r="J143">
+        <v>1.8121410018999518E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144">
+        <v>17000</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>377.2</v>
+      </c>
+      <c r="F144">
+        <v>42</v>
+      </c>
+      <c r="G144">
+        <v>17</v>
+      </c>
+      <c r="H144">
+        <v>2375</v>
+      </c>
+      <c r="I144">
+        <v>1.8178042781862257E-2</v>
+      </c>
+      <c r="J144">
+        <v>-1.4865994575688113E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145">
+        <v>17000</v>
+      </c>
+      <c r="D145">
+        <v>500</v>
+      </c>
+      <c r="F145">
+        <v>42</v>
+      </c>
+      <c r="G145">
+        <v>17</v>
+      </c>
+      <c r="I145">
+        <v>1.8178042781862257E-2</v>
+      </c>
+      <c r="J145">
+        <v>-1.4865994575688113E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146">
+        <v>17000</v>
+      </c>
+      <c r="D146">
+        <v>1000</v>
+      </c>
+      <c r="F146">
+        <v>42</v>
+      </c>
+      <c r="G146">
+        <v>17</v>
+      </c>
+      <c r="I146">
+        <v>1.8178042781862257E-2</v>
+      </c>
+      <c r="J146">
+        <v>-1.4865994575688113E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147">
+        <v>17000</v>
+      </c>
+      <c r="D147">
+        <v>1500</v>
+      </c>
+      <c r="F147">
+        <v>42</v>
+      </c>
+      <c r="G147">
+        <v>17</v>
+      </c>
+      <c r="I147">
+        <v>1.8178042781862257E-2</v>
+      </c>
+      <c r="J147">
+        <v>-1.4865994575688113E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148">
+        <v>19000</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>481.7</v>
+      </c>
+      <c r="F148">
+        <v>52</v>
+      </c>
+      <c r="G148">
+        <v>20</v>
+      </c>
+      <c r="H148">
+        <v>3507</v>
+      </c>
+      <c r="I148">
+        <v>9.4412375795279377E-2</v>
+      </c>
+      <c r="J148">
+        <v>-7.5757619389677344E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>19000</v>
+      </c>
+      <c r="D149">
+        <v>500</v>
+      </c>
+      <c r="F149">
+        <v>52</v>
+      </c>
+      <c r="G149">
+        <v>20</v>
+      </c>
+      <c r="I149">
+        <v>9.4412375795279377E-2</v>
+      </c>
+      <c r="J149">
+        <v>-7.5757619389677344E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150">
+        <v>19000</v>
+      </c>
+      <c r="D150">
+        <v>1000</v>
+      </c>
+      <c r="F150">
+        <v>52</v>
+      </c>
+      <c r="G150">
+        <v>20</v>
+      </c>
+      <c r="I150">
+        <v>9.4412375795279377E-2</v>
+      </c>
+      <c r="J150">
+        <v>-7.5757619389677344E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>19000</v>
+      </c>
+      <c r="D151">
+        <v>1500</v>
+      </c>
+      <c r="F151">
+        <v>52</v>
+      </c>
+      <c r="G151">
+        <v>20</v>
+      </c>
+      <c r="I151">
+        <v>9.4412375795279377E-2</v>
+      </c>
+      <c r="J151">
+        <v>-7.5757619389677344E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152">
+        <v>21000</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>624</v>
+      </c>
+      <c r="F152">
+        <v>64</v>
+      </c>
+      <c r="G152">
+        <v>26</v>
+      </c>
+      <c r="H152">
+        <v>5234</v>
+      </c>
+      <c r="I152">
+        <v>0.395158384848594</v>
+      </c>
+      <c r="J152">
+        <v>-0.34017677362303667</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153">
+        <v>21000</v>
+      </c>
+      <c r="D153">
+        <v>500</v>
+      </c>
+      <c r="F153">
+        <v>64</v>
+      </c>
+      <c r="G153">
+        <v>26</v>
+      </c>
+      <c r="I153">
+        <v>0.395158384848594</v>
+      </c>
+      <c r="J153">
+        <v>-0.34017677362303667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154">
+        <v>21000</v>
+      </c>
+      <c r="D154">
+        <v>1000</v>
+      </c>
+      <c r="F154">
+        <v>64</v>
+      </c>
+      <c r="G154">
+        <v>26</v>
+      </c>
+      <c r="I154">
+        <v>0.395158384848594</v>
+      </c>
+      <c r="J154">
+        <v>-0.34017677362303667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155">
+        <v>21000</v>
+      </c>
+      <c r="D155">
+        <v>1500</v>
+      </c>
+      <c r="F155">
+        <v>64</v>
+      </c>
+      <c r="G155">
+        <v>26</v>
+      </c>
+      <c r="I155">
+        <v>0.395158384848594</v>
+      </c>
+      <c r="J155">
+        <v>-0.34017677362303667</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J155">
+    <sortCondition ref="A2:A155"/>
+    <sortCondition ref="C2:C155"/>
+    <sortCondition ref="D2:D155"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4670200D-FCB4-4365-B586-1F17B816050D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4531,7 +12429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371A989B-35A3-421F-B767-FFBE138A6C5D}">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -4843,7 +12741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5777B8-458F-4FD1-BC5E-7D792F8D0E8B}">
   <dimension ref="A1:E8"/>
   <sheetViews>

--- a/Artillery/Shiny_Shots/shots/M795.xlsx
+++ b/Artillery/Shiny_Shots/shots/M795.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\MyProjects\Artillery\Shiny_Shots\shots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94902F4B-AD50-461B-A381-910A2CF4685A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B1B132-9DB0-4ADA-82B7-A3D78ADD8E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{ACD2B132-6E61-4758-88E4-4B02781318D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MACs" sheetId="3" r:id="rId1"/>
     <sheet name="Alt" sheetId="5" r:id="rId2"/>
-    <sheet name="Alt (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="rand" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="7R" sheetId="1" r:id="rId5"/>
     <sheet name="4H" sheetId="2" r:id="rId6"/>
@@ -311,11 +311,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453896584"/>
-        <c:axId val="453895600"/>
+        <c:axId val="151192608"/>
+        <c:axId val="151194240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453896584"/>
+        <c:axId val="151192608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,12 +372,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453895600"/>
+        <c:crossAx val="151194240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453895600"/>
+        <c:axId val="151194240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453896584"/>
+        <c:crossAx val="151192608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -751,11 +751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="436566600"/>
-        <c:axId val="436564960"/>
+        <c:axId val="151678856"/>
+        <c:axId val="151291920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="436566600"/>
+        <c:axId val="151678856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,12 +812,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436564960"/>
+        <c:crossAx val="151291920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436564960"/>
+        <c:axId val="151291920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436566600"/>
+        <c:crossAx val="151678856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2506,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C41F4F-EBAC-4919-9985-D9EB2643DC57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4528,18 +4528,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E58739-A28C-4E95-B4CC-E1B935A41457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5123,6 +5130,9 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
+      <c r="B19">
+        <v>426.3</v>
+      </c>
       <c r="C19">
         <v>3000</v>
       </c>
@@ -5152,17 +5162,26 @@
       <c r="A20" t="s">
         <v>15</v>
       </c>
+      <c r="B20">
+        <v>426.3</v>
+      </c>
       <c r="C20">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D20">
         <v>500</v>
       </c>
+      <c r="E20">
+        <v>100.8</v>
+      </c>
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20">
         <v>3</v>
+      </c>
+      <c r="H20">
+        <v>582</v>
       </c>
       <c r="I20">
         <v>7.6667802181275115E-3</v>
@@ -5175,17 +5194,26 @@
       <c r="A21" t="s">
         <v>15</v>
       </c>
+      <c r="B21">
+        <v>426.3</v>
+      </c>
       <c r="C21">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D21">
         <v>1000</v>
       </c>
+      <c r="E21">
+        <v>99.9</v>
+      </c>
       <c r="F21">
         <v>8</v>
       </c>
       <c r="G21">
         <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1081</v>
       </c>
       <c r="I21">
         <v>7.6667802181275115E-3</v>
@@ -5198,17 +5226,26 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
+      <c r="B22">
+        <v>426.3</v>
+      </c>
       <c r="C22">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D22">
         <v>1500</v>
       </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
       <c r="F22">
         <v>8</v>
       </c>
       <c r="G22">
         <v>3</v>
+      </c>
+      <c r="H22">
+        <v>1579</v>
       </c>
       <c r="I22">
         <v>7.6667802181275115E-3</v>
@@ -5221,6 +5258,9 @@
       <c r="A23" t="s">
         <v>15</v>
       </c>
+      <c r="B23">
+        <v>426.3</v>
+      </c>
       <c r="C23">
         <v>4000</v>
       </c>
@@ -5250,17 +5290,26 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
+      <c r="B24">
+        <v>426.3</v>
+      </c>
       <c r="C24">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D24">
         <v>500</v>
       </c>
+      <c r="E24">
+        <v>143.80000000000001</v>
+      </c>
       <c r="F24">
         <v>11</v>
       </c>
       <c r="G24">
         <v>4</v>
+      </c>
+      <c r="H24">
+        <v>660</v>
       </c>
       <c r="I24">
         <v>1.5060471433127446E-2</v>
@@ -5273,17 +5322,26 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
+      <c r="B25">
+        <v>426.3</v>
+      </c>
       <c r="C25">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D25">
         <v>1000</v>
       </c>
+      <c r="E25">
+        <v>142.19999999999999</v>
+      </c>
       <c r="F25">
         <v>11</v>
       </c>
       <c r="G25">
         <v>4</v>
+      </c>
+      <c r="H25">
+        <v>1157</v>
       </c>
       <c r="I25">
         <v>1.5060471433127446E-2</v>
@@ -5296,17 +5354,26 @@
       <c r="A26" t="s">
         <v>15</v>
       </c>
+      <c r="B26">
+        <v>426.3</v>
+      </c>
       <c r="C26">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D26">
         <v>1500</v>
       </c>
+      <c r="E26">
+        <v>140.5</v>
+      </c>
       <c r="F26">
         <v>11</v>
       </c>
       <c r="G26">
         <v>4</v>
+      </c>
+      <c r="H26">
+        <v>1655</v>
       </c>
       <c r="I26">
         <v>1.5060471433127446E-2</v>
@@ -5319,6 +5386,9 @@
       <c r="A27" t="s">
         <v>15</v>
       </c>
+      <c r="B27">
+        <v>426.3</v>
+      </c>
       <c r="C27">
         <v>5000</v>
       </c>
@@ -5348,17 +5418,26 @@
       <c r="A28" t="s">
         <v>15</v>
       </c>
+      <c r="B28">
+        <v>426.3</v>
+      </c>
       <c r="C28">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="D28">
         <v>500</v>
       </c>
+      <c r="E28">
+        <v>191.3</v>
+      </c>
       <c r="F28">
         <v>14</v>
       </c>
       <c r="G28">
         <v>5</v>
+      </c>
+      <c r="H28">
+        <v>770</v>
       </c>
       <c r="I28">
         <v>2.3879867339872851E-2</v>
@@ -5371,17 +5450,26 @@
       <c r="A29" t="s">
         <v>15</v>
       </c>
+      <c r="B29">
+        <v>426.3</v>
+      </c>
       <c r="C29">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="D29">
         <v>1000</v>
       </c>
+      <c r="E29">
+        <v>188.9</v>
+      </c>
       <c r="F29">
         <v>14</v>
       </c>
       <c r="G29">
         <v>5</v>
+      </c>
+      <c r="H29">
+        <v>1267</v>
       </c>
       <c r="I29">
         <v>2.3879867339872851E-2</v>
@@ -5394,17 +5482,26 @@
       <c r="A30" t="s">
         <v>15</v>
       </c>
+      <c r="B30">
+        <v>426.3</v>
+      </c>
       <c r="C30">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="D30">
         <v>1500</v>
       </c>
+      <c r="E30">
+        <v>186.6</v>
+      </c>
       <c r="F30">
         <v>14</v>
       </c>
       <c r="G30">
         <v>5</v>
+      </c>
+      <c r="H30">
+        <v>1762</v>
       </c>
       <c r="I30">
         <v>2.3879867339872851E-2</v>
@@ -5417,6 +5514,9 @@
       <c r="A31" t="s">
         <v>15</v>
       </c>
+      <c r="B31">
+        <v>426.3</v>
+      </c>
       <c r="C31">
         <v>6000</v>
       </c>
@@ -5446,17 +5546,26 @@
       <c r="A32" t="s">
         <v>15</v>
       </c>
+      <c r="B32">
+        <v>426.3</v>
+      </c>
       <c r="C32">
         <v>6000</v>
       </c>
       <c r="D32">
         <v>500</v>
       </c>
+      <c r="E32">
+        <v>243.4</v>
+      </c>
       <c r="F32">
         <v>18</v>
       </c>
       <c r="G32">
         <v>7</v>
+      </c>
+      <c r="H32">
+        <v>921</v>
       </c>
       <c r="I32">
         <v>4.5449460719777471E-2</v>
@@ -5469,17 +5578,26 @@
       <c r="A33" t="s">
         <v>15</v>
       </c>
+      <c r="B33">
+        <v>426.3</v>
+      </c>
       <c r="C33">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="D33">
         <v>1000</v>
       </c>
+      <c r="E33">
+        <v>240.4</v>
+      </c>
       <c r="F33">
         <v>18</v>
       </c>
       <c r="G33">
         <v>7</v>
+      </c>
+      <c r="H33">
+        <v>1415</v>
       </c>
       <c r="I33">
         <v>4.5449460719777471E-2</v>
@@ -5492,17 +5610,26 @@
       <c r="A34" t="s">
         <v>15</v>
       </c>
+      <c r="B34">
+        <v>426.3</v>
+      </c>
       <c r="C34">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="D34">
         <v>1500</v>
       </c>
+      <c r="E34">
+        <v>237.3</v>
+      </c>
       <c r="F34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1908</v>
       </c>
       <c r="I34">
         <v>4.5449460719777471E-2</v>
@@ -5515,6 +5642,9 @@
       <c r="A35" t="s">
         <v>15</v>
       </c>
+      <c r="B35">
+        <v>426.3</v>
+      </c>
       <c r="C35">
         <v>7000</v>
       </c>
@@ -5544,17 +5674,26 @@
       <c r="A36" t="s">
         <v>15</v>
       </c>
+      <c r="B36">
+        <v>426.3</v>
+      </c>
       <c r="C36">
-        <v>7000</v>
+        <v>7003</v>
       </c>
       <c r="D36">
         <v>500</v>
       </c>
+      <c r="E36">
+        <v>300.89999999999998</v>
+      </c>
       <c r="F36">
         <v>22</v>
       </c>
       <c r="G36">
         <v>8</v>
+      </c>
+      <c r="H36">
+        <v>1117</v>
       </c>
       <c r="I36">
         <v>6.8140247417609615E-2</v>
@@ -5567,17 +5706,26 @@
       <c r="A37" t="s">
         <v>15</v>
       </c>
+      <c r="B37">
+        <v>426.3</v>
+      </c>
       <c r="C37">
-        <v>7000</v>
+        <v>7003</v>
       </c>
       <c r="D37">
         <v>1000</v>
       </c>
+      <c r="E37">
+        <v>297</v>
+      </c>
       <c r="F37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37">
         <v>8</v>
+      </c>
+      <c r="H37">
+        <v>1608</v>
       </c>
       <c r="I37">
         <v>6.8140247417609615E-2</v>
@@ -5590,17 +5738,26 @@
       <c r="A38" t="s">
         <v>15</v>
       </c>
+      <c r="B38">
+        <v>426.3</v>
+      </c>
       <c r="C38">
-        <v>7000</v>
+        <v>7003</v>
       </c>
       <c r="D38">
         <v>1500</v>
       </c>
+      <c r="E38">
+        <v>293.10000000000002</v>
+      </c>
       <c r="F38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38">
         <v>8</v>
+      </c>
+      <c r="H38">
+        <v>2098</v>
       </c>
       <c r="I38">
         <v>6.8140247417609615E-2</v>
@@ -5613,6 +5770,9 @@
       <c r="A39" t="s">
         <v>15</v>
       </c>
+      <c r="B39">
+        <v>426.3</v>
+      </c>
       <c r="C39">
         <v>8000</v>
       </c>
@@ -5642,17 +5802,26 @@
       <c r="A40" t="s">
         <v>15</v>
       </c>
+      <c r="B40">
+        <v>426.3</v>
+      </c>
       <c r="C40">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="D40">
         <v>500</v>
       </c>
+      <c r="E40">
+        <v>365</v>
+      </c>
       <c r="F40">
         <v>26</v>
       </c>
       <c r="G40">
         <v>10</v>
+      </c>
+      <c r="H40">
+        <v>1370</v>
       </c>
       <c r="I40">
         <v>0.11054953557288512</v>
@@ -5665,17 +5834,26 @@
       <c r="A41" t="s">
         <v>15</v>
       </c>
+      <c r="B41">
+        <v>426.3</v>
+      </c>
       <c r="C41">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="D41">
         <v>1000</v>
       </c>
+      <c r="E41">
+        <v>359.9</v>
+      </c>
       <c r="F41">
         <v>26</v>
       </c>
       <c r="G41">
         <v>10</v>
+      </c>
+      <c r="H41">
+        <v>1856</v>
       </c>
       <c r="I41">
         <v>0.11054953557288512</v>
@@ -5688,17 +5866,26 @@
       <c r="A42" t="s">
         <v>15</v>
       </c>
+      <c r="B42">
+        <v>426.3</v>
+      </c>
       <c r="C42">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="D42">
         <v>1500</v>
       </c>
+      <c r="E42">
+        <v>354.8</v>
+      </c>
       <c r="F42">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G42">
         <v>10</v>
+      </c>
+      <c r="H42">
+        <v>2342</v>
       </c>
       <c r="I42">
         <v>0.11054953557288512</v>
@@ -5711,6 +5898,9 @@
       <c r="A43" t="s">
         <v>15</v>
       </c>
+      <c r="B43">
+        <v>426.3</v>
+      </c>
       <c r="C43">
         <v>9000</v>
       </c>
@@ -5740,17 +5930,26 @@
       <c r="A44" t="s">
         <v>15</v>
       </c>
+      <c r="B44">
+        <v>426.3</v>
+      </c>
       <c r="C44">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="D44">
         <v>500</v>
       </c>
+      <c r="E44">
+        <v>438.7</v>
+      </c>
       <c r="F44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>13</v>
+      </c>
+      <c r="H44">
+        <v>1702</v>
       </c>
       <c r="I44">
         <v>0.19031878268271962</v>
@@ -5763,17 +5962,26 @@
       <c r="A45" t="s">
         <v>15</v>
       </c>
+      <c r="B45">
+        <v>426.3</v>
+      </c>
       <c r="C45">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="D45">
         <v>1000</v>
       </c>
+      <c r="E45">
+        <v>431.5</v>
+      </c>
       <c r="F45">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>2178</v>
       </c>
       <c r="I45">
         <v>0.19031878268271962</v>
@@ -5786,17 +5994,26 @@
       <c r="A46" t="s">
         <v>15</v>
       </c>
+      <c r="B46">
+        <v>426.3</v>
+      </c>
       <c r="C46">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="D46">
         <v>1500</v>
       </c>
+      <c r="E46">
+        <v>424.6</v>
+      </c>
       <c r="F46">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>2655</v>
       </c>
       <c r="I46">
         <v>0.19031878268271962</v>
@@ -5809,6 +6026,9 @@
       <c r="A47" t="s">
         <v>15</v>
       </c>
+      <c r="B47">
+        <v>426.3</v>
+      </c>
       <c r="C47">
         <v>10000</v>
       </c>
@@ -5838,17 +6058,26 @@
       <c r="A48" t="s">
         <v>15</v>
       </c>
+      <c r="B48">
+        <v>426.3</v>
+      </c>
       <c r="C48">
-        <v>10000</v>
+        <v>10004</v>
       </c>
       <c r="D48">
         <v>500</v>
       </c>
+      <c r="E48">
+        <v>528.5</v>
+      </c>
       <c r="F48">
         <v>36</v>
       </c>
       <c r="G48">
         <v>16</v>
+      </c>
+      <c r="H48">
+        <v>2158</v>
       </c>
       <c r="I48">
         <v>0.44032849826147868</v>
@@ -5861,17 +6090,26 @@
       <c r="A49" t="s">
         <v>15</v>
       </c>
+      <c r="B49">
+        <v>426.3</v>
+      </c>
       <c r="C49">
-        <v>10000</v>
+        <v>10004</v>
       </c>
       <c r="D49">
         <v>1000</v>
       </c>
+      <c r="E49">
+        <v>517.9</v>
+      </c>
       <c r="F49">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>2616</v>
       </c>
       <c r="I49">
         <v>0.44032849826147868</v>
@@ -5884,17 +6122,26 @@
       <c r="A50" t="s">
         <v>15</v>
       </c>
+      <c r="B50">
+        <v>426.3</v>
+      </c>
       <c r="C50">
-        <v>10000</v>
+        <v>10004</v>
       </c>
       <c r="D50">
         <v>1500</v>
       </c>
+      <c r="E50">
+        <v>507.6</v>
+      </c>
       <c r="F50">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>3074</v>
       </c>
       <c r="I50">
         <v>0.44032849826147868</v>
@@ -5907,6 +6154,9 @@
       <c r="A51" t="s">
         <v>16</v>
       </c>
+      <c r="B51">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C51">
         <v>4000</v>
       </c>
@@ -5936,17 +6186,26 @@
       <c r="A52" t="s">
         <v>16</v>
       </c>
+      <c r="B52">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C52">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D52">
         <v>500</v>
       </c>
+      <c r="E52">
+        <v>78.099999999999994</v>
+      </c>
       <c r="F52">
         <v>8</v>
       </c>
       <c r="G52">
         <v>3</v>
+      </c>
+      <c r="H52">
+        <v>586</v>
       </c>
       <c r="I52">
         <v>3.2574426955328671E-3</v>
@@ -5959,17 +6218,26 @@
       <c r="A53" t="s">
         <v>16</v>
       </c>
+      <c r="B53">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C53">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D53">
         <v>1000</v>
       </c>
+      <c r="E53">
+        <v>77.099999999999994</v>
+      </c>
       <c r="F53">
         <v>8</v>
       </c>
       <c r="G53">
         <v>3</v>
+      </c>
+      <c r="H53">
+        <v>1084</v>
       </c>
       <c r="I53">
         <v>3.2574426955328671E-3</v>
@@ -5982,17 +6250,26 @@
       <c r="A54" t="s">
         <v>16</v>
       </c>
+      <c r="B54">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C54">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D54">
         <v>1500</v>
       </c>
+      <c r="E54">
+        <v>76.2</v>
+      </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54">
         <v>3</v>
+      </c>
+      <c r="H54">
+        <v>1583</v>
       </c>
       <c r="I54">
         <v>3.2574426955328671E-3</v>
@@ -6005,6 +6282,9 @@
       <c r="A55" t="s">
         <v>16</v>
       </c>
+      <c r="B55">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C55">
         <v>5000</v>
       </c>
@@ -6034,17 +6314,26 @@
       <c r="A56" t="s">
         <v>16</v>
       </c>
+      <c r="B56">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C56">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="D56">
         <v>500</v>
       </c>
+      <c r="E56">
+        <v>104.2</v>
+      </c>
       <c r="F56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <v>4</v>
+      </c>
+      <c r="H56">
+        <v>647</v>
       </c>
       <c r="I56">
         <v>5.8595816746911823E-3</v>
@@ -6057,17 +6346,26 @@
       <c r="A57" t="s">
         <v>16</v>
       </c>
+      <c r="B57">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C57">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="D57">
         <v>1000</v>
       </c>
+      <c r="E57">
+        <v>102.5</v>
+      </c>
       <c r="F57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>1144</v>
       </c>
       <c r="I57">
         <v>5.8595816746911823E-3</v>
@@ -6080,17 +6378,26 @@
       <c r="A58" t="s">
         <v>16</v>
       </c>
+      <c r="B58">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C58">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="D58">
         <v>1500</v>
       </c>
+      <c r="E58">
+        <v>100.9</v>
+      </c>
       <c r="F58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>1641</v>
       </c>
       <c r="I58">
         <v>5.8595816746911823E-3</v>
@@ -6103,6 +6410,9 @@
       <c r="A59" t="s">
         <v>16</v>
       </c>
+      <c r="B59">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C59">
         <v>7000</v>
       </c>
@@ -6132,17 +6442,26 @@
       <c r="A60" t="s">
         <v>16</v>
       </c>
+      <c r="B60">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C60">
-        <v>7000</v>
+        <v>7003</v>
       </c>
       <c r="D60">
         <v>500</v>
       </c>
+      <c r="E60">
+        <v>168</v>
+      </c>
       <c r="F60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60">
         <v>6</v>
+      </c>
+      <c r="H60">
+        <v>854</v>
       </c>
       <c r="I60">
         <v>1.0836586075463207E-2</v>
@@ -6155,17 +6474,26 @@
       <c r="A61" t="s">
         <v>16</v>
       </c>
+      <c r="B61">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C61">
-        <v>7000</v>
+        <v>7003</v>
       </c>
       <c r="D61">
         <v>1000</v>
       </c>
+      <c r="E61">
+        <v>164</v>
+      </c>
       <c r="F61">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G61">
         <v>6</v>
+      </c>
+      <c r="H61">
+        <v>1342</v>
       </c>
       <c r="I61">
         <v>1.0836586075463207E-2</v>
@@ -6178,17 +6506,26 @@
       <c r="A62" t="s">
         <v>16</v>
       </c>
+      <c r="B62">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C62">
-        <v>7000</v>
+        <v>7003</v>
       </c>
       <c r="D62">
         <v>1500</v>
       </c>
+      <c r="E62">
+        <v>160.19999999999999</v>
+      </c>
       <c r="F62">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>1831</v>
       </c>
       <c r="I62">
         <v>1.0836586075463207E-2</v>
@@ -6201,6 +6538,9 @@
       <c r="A63" t="s">
         <v>16</v>
       </c>
+      <c r="B63">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C63">
         <v>8000</v>
       </c>
@@ -6230,17 +6570,26 @@
       <c r="A64" t="s">
         <v>16</v>
       </c>
+      <c r="B64">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C64">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="D64">
         <v>500</v>
       </c>
+      <c r="E64">
+        <v>206.3</v>
+      </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64">
         <v>7</v>
+      </c>
+      <c r="H64">
+        <v>1011</v>
       </c>
       <c r="I64">
         <v>1.8876814476067462E-2</v>
@@ -6253,17 +6602,26 @@
       <c r="A65" t="s">
         <v>16</v>
       </c>
+      <c r="B65">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C65">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="D65">
         <v>1000</v>
       </c>
+      <c r="E65">
+        <v>200.9</v>
+      </c>
       <c r="F65">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65">
         <v>7</v>
+      </c>
+      <c r="H65">
+        <v>1492</v>
       </c>
       <c r="I65">
         <v>1.8876814476067462E-2</v>
@@ -6276,17 +6634,26 @@
       <c r="A66" t="s">
         <v>16</v>
       </c>
+      <c r="B66">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C66">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="D66">
         <v>1500</v>
       </c>
+      <c r="E66">
+        <v>195.6</v>
+      </c>
       <c r="F66">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66">
         <v>7</v>
+      </c>
+      <c r="H66">
+        <v>1974</v>
       </c>
       <c r="I66">
         <v>1.8876814476067462E-2</v>
@@ -6299,6 +6666,9 @@
       <c r="A67" t="s">
         <v>16</v>
       </c>
+      <c r="B67">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C67">
         <v>9000</v>
       </c>
@@ -6328,17 +6698,26 @@
       <c r="A68" t="s">
         <v>16</v>
       </c>
+      <c r="B68">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C68">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="D68">
         <v>500</v>
       </c>
+      <c r="E68">
+        <v>249</v>
+      </c>
       <c r="F68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>1210</v>
       </c>
       <c r="I68">
         <v>3.4163100796124793E-2</v>
@@ -6351,17 +6730,26 @@
       <c r="A69" t="s">
         <v>16</v>
       </c>
+      <c r="B69">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C69">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="D69">
         <v>1000</v>
       </c>
+      <c r="E69">
+        <v>242.2</v>
+      </c>
       <c r="F69">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H69">
+        <v>1685</v>
       </c>
       <c r="I69">
         <v>3.4163100796124793E-2</v>
@@ -6374,17 +6762,26 @@
       <c r="A70" t="s">
         <v>16</v>
       </c>
+      <c r="B70">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C70">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="D70">
         <v>1500</v>
       </c>
+      <c r="E70">
+        <v>235.1</v>
+      </c>
       <c r="F70">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G70">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H70">
+        <v>2158</v>
       </c>
       <c r="I70">
         <v>3.4163100796124793E-2</v>
@@ -6397,6 +6794,9 @@
       <c r="A71" t="s">
         <v>16</v>
       </c>
+      <c r="B71">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C71">
         <v>10000</v>
       </c>
@@ -6426,17 +6826,26 @@
       <c r="A72" t="s">
         <v>16</v>
       </c>
+      <c r="B72">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C72">
-        <v>10000</v>
+        <v>10004</v>
       </c>
       <c r="D72">
         <v>500</v>
       </c>
+      <c r="E72">
+        <v>296.5</v>
+      </c>
       <c r="F72">
         <v>27</v>
       </c>
       <c r="G72">
         <v>10</v>
+      </c>
+      <c r="H72">
+        <v>1460</v>
       </c>
       <c r="I72">
         <v>5.4058582818627202E-2</v>
@@ -6449,17 +6858,26 @@
       <c r="A73" t="s">
         <v>16</v>
       </c>
+      <c r="B73">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C73">
-        <v>10000</v>
+        <v>10004</v>
       </c>
       <c r="D73">
         <v>1000</v>
       </c>
+      <c r="E73">
+        <v>287.7</v>
+      </c>
       <c r="F73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G73">
         <v>10</v>
+      </c>
+      <c r="H73">
+        <v>1924</v>
       </c>
       <c r="I73">
         <v>5.4058582818627202E-2</v>
@@ -6472,17 +6890,26 @@
       <c r="A74" t="s">
         <v>16</v>
       </c>
+      <c r="B74">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C74">
-        <v>10000</v>
+        <v>10004</v>
       </c>
       <c r="D74">
         <v>1500</v>
       </c>
+      <c r="E74">
+        <v>279.10000000000002</v>
+      </c>
       <c r="F74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G74">
         <v>10</v>
+      </c>
+      <c r="H74">
+        <v>2389</v>
       </c>
       <c r="I74">
         <v>5.4058582818627202E-2</v>
@@ -6495,6 +6922,9 @@
       <c r="A75" t="s">
         <v>16</v>
       </c>
+      <c r="B75">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C75">
         <v>12000</v>
       </c>
@@ -6524,17 +6954,26 @@
       <c r="A76" t="s">
         <v>16</v>
       </c>
+      <c r="B76">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C76">
-        <v>12000</v>
+        <v>12005</v>
       </c>
       <c r="D76">
         <v>500</v>
       </c>
+      <c r="E76">
+        <v>407.7</v>
+      </c>
       <c r="F76">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H76">
+        <v>2142</v>
       </c>
       <c r="I76">
         <v>0.13120893548428586</v>
@@ -6547,17 +6986,26 @@
       <c r="A77" t="s">
         <v>16</v>
       </c>
+      <c r="B77">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C77">
-        <v>12000</v>
+        <v>12005</v>
       </c>
       <c r="D77">
         <v>1000</v>
       </c>
+      <c r="E77">
+        <v>394.7</v>
+      </c>
       <c r="F77">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H77">
+        <v>2581</v>
       </c>
       <c r="I77">
         <v>0.13120893548428586</v>
@@ -6570,17 +7018,26 @@
       <c r="A78" t="s">
         <v>16</v>
       </c>
+      <c r="B78">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C78">
-        <v>12000</v>
+        <v>12005</v>
       </c>
       <c r="D78">
         <v>1500</v>
       </c>
+      <c r="E78">
+        <v>381.9</v>
+      </c>
       <c r="F78">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H78">
+        <v>3020</v>
       </c>
       <c r="I78">
         <v>0.13120893548428586</v>
@@ -6593,6 +7050,9 @@
       <c r="A79" t="s">
         <v>16</v>
       </c>
+      <c r="B79">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C79">
         <v>13000</v>
       </c>
@@ -6622,17 +7082,26 @@
       <c r="A80" t="s">
         <v>16</v>
       </c>
+      <c r="B80">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C80">
-        <v>13000</v>
+        <v>13005</v>
       </c>
       <c r="D80">
         <v>500</v>
       </c>
+      <c r="E80">
+        <v>474.5</v>
+      </c>
       <c r="F80">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>17</v>
+      </c>
+      <c r="H80">
+        <v>2607</v>
       </c>
       <c r="I80">
         <v>0.26798855024841994</v>
@@ -6645,17 +7114,26 @@
       <c r="A81" t="s">
         <v>16</v>
       </c>
+      <c r="B81">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C81">
-        <v>13000</v>
+        <v>13005</v>
       </c>
       <c r="D81">
         <v>1000</v>
       </c>
+      <c r="E81">
+        <v>458</v>
+      </c>
       <c r="F81">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G81">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H81">
+        <v>3025</v>
       </c>
       <c r="I81">
         <v>0.26798855024841994</v>
@@ -6668,17 +7146,26 @@
       <c r="A82" t="s">
         <v>16</v>
       </c>
+      <c r="B82">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C82">
-        <v>13000</v>
+        <v>13005</v>
       </c>
       <c r="D82">
         <v>1500</v>
       </c>
+      <c r="E82">
+        <v>442.8</v>
+      </c>
       <c r="F82">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G82">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="H82">
+        <v>3444</v>
       </c>
       <c r="I82">
         <v>0.26798855024841994</v>
@@ -6691,6 +7178,9 @@
       <c r="A83" t="s">
         <v>16</v>
       </c>
+      <c r="B83">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C83">
         <v>14000</v>
       </c>
@@ -6720,17 +7210,26 @@
       <c r="A84" t="s">
         <v>16</v>
       </c>
+      <c r="B84">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C84">
-        <v>14000</v>
+        <v>14006</v>
       </c>
       <c r="D84">
         <v>500</v>
       </c>
+      <c r="E84">
+        <v>554.4</v>
+      </c>
       <c r="F84">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G84">
         <v>21</v>
+      </c>
+      <c r="H84">
+        <v>3209</v>
       </c>
       <c r="I84">
         <v>0.47088313412861332</v>
@@ -6743,17 +7242,26 @@
       <c r="A85" t="s">
         <v>16</v>
       </c>
+      <c r="B85">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C85">
-        <v>14000</v>
+        <v>14006</v>
       </c>
       <c r="D85">
         <v>1000</v>
       </c>
+      <c r="E85">
+        <v>532.9</v>
+      </c>
       <c r="F85">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G85">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="H85">
+        <v>3585</v>
       </c>
       <c r="I85">
         <v>0.47088313412861332</v>
@@ -6766,17 +7274,26 @@
       <c r="A86" t="s">
         <v>16</v>
       </c>
+      <c r="B86">
+        <v>568.70000000000005</v>
+      </c>
       <c r="C86">
-        <v>14000</v>
+        <v>14006</v>
       </c>
       <c r="D86">
         <v>1500</v>
       </c>
+      <c r="E86">
+        <v>513</v>
+      </c>
       <c r="F86">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G86">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="H86">
+        <v>3973</v>
       </c>
       <c r="I86">
         <v>0.47088313412861332</v>
@@ -6789,6 +7306,9 @@
       <c r="A87" t="s">
         <v>17</v>
       </c>
+      <c r="B87">
+        <v>682.7</v>
+      </c>
       <c r="C87">
         <v>4000</v>
       </c>
@@ -6818,17 +7338,26 @@
       <c r="A88" t="s">
         <v>17</v>
       </c>
+      <c r="B88">
+        <v>682.7</v>
+      </c>
       <c r="C88">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D88">
         <v>500</v>
       </c>
+      <c r="E88">
+        <v>52.4</v>
+      </c>
       <c r="F88">
         <v>6</v>
       </c>
       <c r="G88">
         <v>2</v>
+      </c>
+      <c r="H88">
+        <v>557</v>
       </c>
       <c r="I88">
         <v>6.3454742051201546E-4</v>
@@ -6841,17 +7370,26 @@
       <c r="A89" t="s">
         <v>17</v>
       </c>
+      <c r="B89">
+        <v>682.7</v>
+      </c>
       <c r="C89">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D89">
         <v>1000</v>
       </c>
+      <c r="E89">
+        <v>51.8</v>
+      </c>
       <c r="F89">
         <v>6</v>
       </c>
       <c r="G89">
         <v>2</v>
+      </c>
+      <c r="H89">
+        <v>1056</v>
       </c>
       <c r="I89">
         <v>6.3454742051201546E-4</v>
@@ -6864,17 +7402,26 @@
       <c r="A90" t="s">
         <v>17</v>
       </c>
+      <c r="B90">
+        <v>682.7</v>
+      </c>
       <c r="C90">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D90">
         <v>1500</v>
       </c>
+      <c r="E90">
+        <v>51.3</v>
+      </c>
       <c r="F90">
         <v>6</v>
       </c>
       <c r="G90">
         <v>2</v>
+      </c>
+      <c r="H90">
+        <v>1555</v>
       </c>
       <c r="I90">
         <v>6.3454742051201546E-4</v>
@@ -6887,6 +7434,9 @@
       <c r="A91" t="s">
         <v>17</v>
       </c>
+      <c r="B91">
+        <v>682.7</v>
+      </c>
       <c r="C91">
         <v>6000</v>
       </c>
@@ -6916,17 +7466,26 @@
       <c r="A92" t="s">
         <v>17</v>
       </c>
+      <c r="B92">
+        <v>682.7</v>
+      </c>
       <c r="C92">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="D92">
         <v>500</v>
       </c>
+      <c r="E92">
+        <v>87.9</v>
+      </c>
       <c r="F92">
         <v>11</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>650</v>
       </c>
       <c r="I92">
         <v>8.1119799797858601E-3</v>
@@ -6939,17 +7498,26 @@
       <c r="A93" t="s">
         <v>17</v>
       </c>
+      <c r="B93">
+        <v>682.7</v>
+      </c>
       <c r="C93">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="D93">
         <v>1000</v>
       </c>
+      <c r="E93">
+        <v>86.4</v>
+      </c>
       <c r="F93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>1147</v>
       </c>
       <c r="I93">
         <v>8.1119799797858601E-3</v>
@@ -6962,17 +7530,26 @@
       <c r="A94" t="s">
         <v>17</v>
       </c>
+      <c r="B94">
+        <v>682.7</v>
+      </c>
       <c r="C94">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="D94">
         <v>1500</v>
       </c>
+      <c r="E94">
+        <v>85</v>
+      </c>
       <c r="F94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>1643</v>
       </c>
       <c r="I94">
         <v>8.1119799797858601E-3</v>
@@ -6985,6 +7562,9 @@
       <c r="A95" t="s">
         <v>17</v>
       </c>
+      <c r="B95">
+        <v>682.7</v>
+      </c>
       <c r="C95">
         <v>8000</v>
       </c>
@@ -7014,17 +7594,26 @@
       <c r="A96" t="s">
         <v>17</v>
       </c>
+      <c r="B96">
+        <v>682.7</v>
+      </c>
       <c r="C96">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="D96">
         <v>500</v>
       </c>
+      <c r="E96">
+        <v>132.9</v>
+      </c>
       <c r="F96">
         <v>16</v>
       </c>
       <c r="G96">
         <v>5</v>
+      </c>
+      <c r="H96">
+        <v>820</v>
       </c>
       <c r="I96">
         <v>1.1019152667768446E-2</v>
@@ -7037,17 +7626,26 @@
       <c r="A97" t="s">
         <v>17</v>
       </c>
+      <c r="B97">
+        <v>682.7</v>
+      </c>
       <c r="C97">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="D97">
         <v>1000</v>
       </c>
+      <c r="E97">
+        <v>129.6</v>
+      </c>
       <c r="F97">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G97">
         <v>5</v>
+      </c>
+      <c r="H97">
+        <v>1309</v>
       </c>
       <c r="I97">
         <v>1.1019152667768446E-2</v>
@@ -7060,17 +7658,26 @@
       <c r="A98" t="s">
         <v>17</v>
       </c>
+      <c r="B98">
+        <v>682.7</v>
+      </c>
       <c r="C98">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="D98">
         <v>1500</v>
       </c>
+      <c r="E98">
+        <v>126.4</v>
+      </c>
       <c r="F98">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G98">
         <v>5</v>
+      </c>
+      <c r="H98">
+        <v>1798</v>
       </c>
       <c r="I98">
         <v>1.1019152667768446E-2</v>
@@ -7083,6 +7690,9 @@
       <c r="A99" t="s">
         <v>17</v>
       </c>
+      <c r="B99">
+        <v>682.7</v>
+      </c>
       <c r="C99">
         <v>10000</v>
       </c>
@@ -7112,17 +7722,26 @@
       <c r="A100" t="s">
         <v>17</v>
       </c>
+      <c r="B100">
+        <v>682.7</v>
+      </c>
       <c r="C100">
-        <v>10000</v>
+        <v>10004</v>
       </c>
       <c r="D100">
         <v>500</v>
       </c>
+      <c r="E100">
+        <v>190.5</v>
+      </c>
       <c r="F100">
         <v>22</v>
       </c>
       <c r="G100">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H100">
+        <v>1106</v>
       </c>
       <c r="I100">
         <v>1.1503422642719509E-2</v>
@@ -7135,17 +7754,26 @@
       <c r="A101" t="s">
         <v>17</v>
       </c>
+      <c r="B101">
+        <v>682.7</v>
+      </c>
       <c r="C101">
-        <v>10000</v>
+        <v>10004</v>
       </c>
       <c r="D101">
         <v>1000</v>
       </c>
+      <c r="E101">
+        <v>184</v>
+      </c>
       <c r="F101">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H101">
+        <v>1578</v>
       </c>
       <c r="I101">
         <v>1.1503422642719509E-2</v>
@@ -7158,17 +7786,26 @@
       <c r="A102" t="s">
         <v>17</v>
       </c>
+      <c r="B102">
+        <v>682.7</v>
+      </c>
       <c r="C102">
-        <v>10000</v>
+        <v>10004</v>
       </c>
       <c r="D102">
         <v>1500</v>
       </c>
+      <c r="E102">
+        <v>178</v>
+      </c>
       <c r="F102">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G102">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H102">
+        <v>2052</v>
       </c>
       <c r="I102">
         <v>1.1503422642719509E-2</v>
@@ -7181,6 +7818,9 @@
       <c r="A103" t="s">
         <v>17</v>
       </c>
+      <c r="B103">
+        <v>682.7</v>
+      </c>
       <c r="C103">
         <v>12000</v>
       </c>
@@ -7210,17 +7850,26 @@
       <c r="A104" t="s">
         <v>17</v>
       </c>
+      <c r="B104">
+        <v>682.7</v>
+      </c>
       <c r="C104">
-        <v>12000</v>
+        <v>12005</v>
       </c>
       <c r="D104">
         <v>500</v>
       </c>
+      <c r="E104">
+        <v>263.10000000000002</v>
+      </c>
       <c r="F104">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G104">
         <v>10</v>
+      </c>
+      <c r="H104">
+        <v>1559</v>
       </c>
       <c r="I104">
         <v>3.3013715390165906E-2</v>
@@ -7233,17 +7882,26 @@
       <c r="A105" t="s">
         <v>17</v>
       </c>
+      <c r="B105">
+        <v>682.7</v>
+      </c>
       <c r="C105">
-        <v>12000</v>
+        <v>12005</v>
       </c>
       <c r="D105">
         <v>1000</v>
       </c>
+      <c r="E105">
+        <v>252.6</v>
+      </c>
       <c r="F105">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G105">
         <v>10</v>
+      </c>
+      <c r="H105">
+        <v>2002</v>
       </c>
       <c r="I105">
         <v>3.3013715390165906E-2</v>
@@ -7256,17 +7914,26 @@
       <c r="A106" t="s">
         <v>17</v>
       </c>
+      <c r="B106">
+        <v>682.7</v>
+      </c>
       <c r="C106">
-        <v>12000</v>
+        <v>12005</v>
       </c>
       <c r="D106">
         <v>1500</v>
       </c>
+      <c r="E106">
+        <v>242.6</v>
+      </c>
       <c r="F106">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H106">
+        <v>2448</v>
       </c>
       <c r="I106">
         <v>3.3013715390165906E-2</v>
@@ -7279,6 +7946,9 @@
       <c r="A107" t="s">
         <v>17</v>
       </c>
+      <c r="B107">
+        <v>682.7</v>
+      </c>
       <c r="C107">
         <v>14000</v>
       </c>
@@ -7308,17 +7978,26 @@
       <c r="A108" t="s">
         <v>17</v>
       </c>
+      <c r="B108">
+        <v>682.7</v>
+      </c>
       <c r="C108">
-        <v>14000</v>
+        <v>14006</v>
       </c>
       <c r="D108">
         <v>500</v>
       </c>
+      <c r="E108">
+        <v>353</v>
+      </c>
       <c r="F108">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>14</v>
+      </c>
+      <c r="H108">
+        <v>2230</v>
       </c>
       <c r="I108">
         <v>7.6814755514716143E-2</v>
@@ -7331,17 +8010,26 @@
       <c r="A109" t="s">
         <v>17</v>
       </c>
+      <c r="B109">
+        <v>682.7</v>
+      </c>
       <c r="C109">
-        <v>14000</v>
+        <v>14006</v>
       </c>
       <c r="D109">
         <v>1000</v>
       </c>
+      <c r="E109">
+        <v>337.3</v>
+      </c>
       <c r="F109">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G109">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H109">
+        <v>2632</v>
       </c>
       <c r="I109">
         <v>7.6814755514716143E-2</v>
@@ -7354,17 +8042,26 @@
       <c r="A110" t="s">
         <v>17</v>
       </c>
+      <c r="B110">
+        <v>682.7</v>
+      </c>
       <c r="C110">
-        <v>14000</v>
+        <v>14006</v>
       </c>
       <c r="D110">
         <v>1500</v>
       </c>
+      <c r="E110">
+        <v>322.3</v>
+      </c>
       <c r="F110">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G110">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H110">
+        <v>3038</v>
       </c>
       <c r="I110">
         <v>7.6814755514716143E-2</v>
@@ -7377,6 +8074,9 @@
       <c r="A111" t="s">
         <v>17</v>
       </c>
+      <c r="B111">
+        <v>682.7</v>
+      </c>
       <c r="C111">
         <v>16000</v>
       </c>
@@ -7406,17 +8106,26 @@
       <c r="A112" t="s">
         <v>17</v>
       </c>
+      <c r="B112">
+        <v>682.7</v>
+      </c>
       <c r="C112">
-        <v>16000</v>
+        <v>16006</v>
       </c>
       <c r="D112">
         <v>500</v>
       </c>
+      <c r="E112">
+        <v>465.1</v>
+      </c>
       <c r="F112">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G112">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H112">
+        <v>3204</v>
       </c>
       <c r="I112">
         <v>0.19394509429885623</v>
@@ -7429,17 +8138,26 @@
       <c r="A113" t="s">
         <v>17</v>
       </c>
+      <c r="B113">
+        <v>682.7</v>
+      </c>
       <c r="C113">
-        <v>16000</v>
+        <v>16006</v>
       </c>
       <c r="D113">
         <v>1000</v>
       </c>
+      <c r="E113">
+        <v>442.4</v>
+      </c>
       <c r="F113">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G113">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H113">
+        <v>3545</v>
       </c>
       <c r="I113">
         <v>0.19394509429885623</v>
@@ -7452,17 +8170,26 @@
       <c r="A114" t="s">
         <v>17</v>
       </c>
+      <c r="B114">
+        <v>682.7</v>
+      </c>
       <c r="C114">
-        <v>16000</v>
+        <v>16006</v>
       </c>
       <c r="D114">
         <v>1500</v>
       </c>
+      <c r="E114">
+        <v>420.6</v>
+      </c>
       <c r="F114">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G114">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="H114">
+        <v>3891</v>
       </c>
       <c r="I114">
         <v>0.19394509429885623</v>
@@ -7475,6 +8202,9 @@
       <c r="A115" t="s">
         <v>17</v>
       </c>
+      <c r="B115">
+        <v>682.7</v>
+      </c>
       <c r="C115">
         <v>18000</v>
       </c>
@@ -7504,17 +8234,26 @@
       <c r="A116" t="s">
         <v>17</v>
       </c>
+      <c r="B116">
+        <v>682.7</v>
+      </c>
       <c r="C116">
-        <v>18000</v>
+        <v>18007</v>
       </c>
       <c r="D116">
         <v>500</v>
       </c>
+      <c r="E116">
+        <v>621.29999999999995</v>
+      </c>
       <c r="F116">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G116">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="H116">
+        <v>4748</v>
       </c>
       <c r="I116">
         <v>0.89691217535354784</v>
@@ -7527,17 +8266,26 @@
       <c r="A117" t="s">
         <v>17</v>
       </c>
+      <c r="B117">
+        <v>682.7</v>
+      </c>
       <c r="C117">
-        <v>18000</v>
+        <v>18007</v>
       </c>
       <c r="D117">
         <v>1000</v>
       </c>
+      <c r="E117">
+        <v>583.1</v>
+      </c>
       <c r="F117">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G117">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="H117">
+        <v>4938</v>
       </c>
       <c r="I117">
         <v>0.89691217535354784</v>
@@ -7550,17 +8298,26 @@
       <c r="A118" t="s">
         <v>17</v>
       </c>
+      <c r="B118">
+        <v>682.7</v>
+      </c>
       <c r="C118">
-        <v>18000</v>
+        <v>18007</v>
       </c>
       <c r="D118">
         <v>1500</v>
       </c>
+      <c r="E118">
+        <v>548.70000000000005</v>
+      </c>
       <c r="F118">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G118">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="H118">
+        <v>5160</v>
       </c>
       <c r="I118">
         <v>0.89691217535354784</v>
@@ -7573,6 +8330,9 @@
       <c r="A119" t="s">
         <v>18</v>
       </c>
+      <c r="B119">
+        <v>790.7</v>
+      </c>
       <c r="C119">
         <v>5000</v>
       </c>
@@ -7602,17 +8362,26 @@
       <c r="A120" t="s">
         <v>18</v>
       </c>
+      <c r="B120">
+        <v>790.7</v>
+      </c>
       <c r="C120">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="D120">
         <v>500</v>
       </c>
+      <c r="E120">
+        <v>50.4</v>
+      </c>
       <c r="F120">
         <v>7</v>
       </c>
       <c r="G120">
         <v>3</v>
+      </c>
+      <c r="H120">
+        <v>569</v>
       </c>
       <c r="I120">
         <v>9.4495831145960602E-4</v>
@@ -7625,17 +8394,26 @@
       <c r="A121" t="s">
         <v>18</v>
       </c>
+      <c r="B121">
+        <v>790.7</v>
+      </c>
       <c r="C121">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="D121">
         <v>1000</v>
       </c>
+      <c r="E121">
+        <v>49.7</v>
+      </c>
       <c r="F121">
         <v>7</v>
       </c>
       <c r="G121">
         <v>3</v>
+      </c>
+      <c r="H121">
+        <v>1068</v>
       </c>
       <c r="I121">
         <v>9.4495831145960602E-4</v>
@@ -7648,17 +8426,26 @@
       <c r="A122" t="s">
         <v>18</v>
       </c>
+      <c r="B122">
+        <v>790.7</v>
+      </c>
       <c r="C122">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="D122">
         <v>1500</v>
       </c>
+      <c r="E122">
+        <v>49.1</v>
+      </c>
       <c r="F122">
         <v>7</v>
       </c>
       <c r="G122">
         <v>3</v>
+      </c>
+      <c r="H122">
+        <v>1567</v>
       </c>
       <c r="I122">
         <v>9.4495831145960602E-4</v>
@@ -7671,6 +8458,9 @@
       <c r="A123" t="s">
         <v>18</v>
       </c>
+      <c r="B123">
+        <v>790.7</v>
+      </c>
       <c r="C123">
         <v>7000</v>
       </c>
@@ -7700,17 +8490,26 @@
       <c r="A124" t="s">
         <v>18</v>
       </c>
+      <c r="B124">
+        <v>790.7</v>
+      </c>
       <c r="C124">
-        <v>7000</v>
+        <v>7003</v>
       </c>
       <c r="D124">
         <v>500</v>
       </c>
+      <c r="E124">
+        <v>78.5</v>
+      </c>
       <c r="F124">
         <v>11</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H124">
+        <v>659</v>
       </c>
       <c r="I124">
         <v>-6.2414619296639971E-4</v>
@@ -7723,17 +8522,26 @@
       <c r="A125" t="s">
         <v>18</v>
       </c>
+      <c r="B125">
+        <v>790.7</v>
+      </c>
       <c r="C125">
-        <v>7000</v>
+        <v>7003</v>
       </c>
       <c r="D125">
         <v>1000</v>
       </c>
+      <c r="E125">
+        <v>77</v>
+      </c>
       <c r="F125">
         <v>11</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H125">
+        <v>1154</v>
       </c>
       <c r="I125">
         <v>-6.2414619296639971E-4</v>
@@ -7746,17 +8554,26 @@
       <c r="A126" t="s">
         <v>18</v>
       </c>
+      <c r="B126">
+        <v>790.7</v>
+      </c>
       <c r="C126">
-        <v>7000</v>
+        <v>7003</v>
       </c>
       <c r="D126">
         <v>1500</v>
       </c>
+      <c r="E126">
+        <v>75.599999999999994</v>
+      </c>
       <c r="F126">
         <v>11</v>
       </c>
       <c r="G126">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H126">
+        <v>1650</v>
       </c>
       <c r="I126">
         <v>-6.2414619296639971E-4</v>
@@ -7769,6 +8586,9 @@
       <c r="A127" t="s">
         <v>18</v>
       </c>
+      <c r="B127">
+        <v>790.7</v>
+      </c>
       <c r="C127">
         <v>9000</v>
       </c>
@@ -7798,17 +8618,26 @@
       <c r="A128" t="s">
         <v>18</v>
       </c>
+      <c r="B128">
+        <v>790.7</v>
+      </c>
       <c r="C128">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="D128">
         <v>500</v>
       </c>
+      <c r="E128">
+        <v>113.3</v>
+      </c>
       <c r="F128">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G128">
         <v>6</v>
+      </c>
+      <c r="H128">
+        <v>810</v>
       </c>
       <c r="I128">
         <v>-1.1929026498954296E-3</v>
@@ -7821,17 +8650,26 @@
       <c r="A129" t="s">
         <v>18</v>
       </c>
+      <c r="B129">
+        <v>790.7</v>
+      </c>
       <c r="C129">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="D129">
         <v>1000</v>
       </c>
+      <c r="E129">
+        <v>110.3</v>
+      </c>
       <c r="F129">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G129">
         <v>6</v>
+      </c>
+      <c r="H129">
+        <v>1298</v>
       </c>
       <c r="I129">
         <v>-1.1929026498954296E-3</v>
@@ -7844,17 +8682,26 @@
       <c r="A130" t="s">
         <v>18</v>
       </c>
+      <c r="B130">
+        <v>790.7</v>
+      </c>
       <c r="C130">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="D130">
         <v>1500</v>
       </c>
+      <c r="E130">
+        <v>107.5</v>
+      </c>
       <c r="F130">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G130">
         <v>6</v>
+      </c>
+      <c r="H130">
+        <v>1787</v>
       </c>
       <c r="I130">
         <v>-1.1929026498954296E-3</v>
@@ -7867,6 +8714,9 @@
       <c r="A131" t="s">
         <v>18</v>
       </c>
+      <c r="B131">
+        <v>790.7</v>
+      </c>
       <c r="C131">
         <v>11000</v>
       </c>
@@ -7896,17 +8746,26 @@
       <c r="A132" t="s">
         <v>18</v>
       </c>
+      <c r="B132">
+        <v>790.7</v>
+      </c>
       <c r="C132">
-        <v>11000</v>
+        <v>11004</v>
       </c>
       <c r="D132">
         <v>500</v>
       </c>
+      <c r="E132">
+        <v>156.80000000000001</v>
+      </c>
       <c r="F132">
         <v>21</v>
       </c>
       <c r="G132">
         <v>8</v>
+      </c>
+      <c r="H132">
+        <v>1051</v>
       </c>
       <c r="I132">
         <v>-6.2250427179554686E-3</v>
@@ -7919,17 +8778,26 @@
       <c r="A133" t="s">
         <v>18</v>
       </c>
+      <c r="B133">
+        <v>790.7</v>
+      </c>
       <c r="C133">
-        <v>11000</v>
+        <v>11004</v>
       </c>
       <c r="D133">
         <v>1000</v>
       </c>
+      <c r="E133">
+        <v>151.4</v>
+      </c>
       <c r="F133">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G133">
         <v>8</v>
+      </c>
+      <c r="H133">
+        <v>1524</v>
       </c>
       <c r="I133">
         <v>-6.2250427179554686E-3</v>
@@ -7942,17 +8810,26 @@
       <c r="A134" t="s">
         <v>18</v>
       </c>
+      <c r="B134">
+        <v>790.7</v>
+      </c>
       <c r="C134">
-        <v>11000</v>
+        <v>11004</v>
       </c>
       <c r="D134">
         <v>1500</v>
       </c>
+      <c r="E134">
+        <v>146.4</v>
+      </c>
       <c r="F134">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G134">
         <v>8</v>
+      </c>
+      <c r="H134">
+        <v>2000</v>
       </c>
       <c r="I134">
         <v>-6.2250427179554686E-3</v>
@@ -7965,6 +8842,9 @@
       <c r="A135" t="s">
         <v>18</v>
       </c>
+      <c r="B135">
+        <v>790.7</v>
+      </c>
       <c r="C135">
         <v>13000</v>
       </c>
@@ -7994,17 +8874,26 @@
       <c r="A136" t="s">
         <v>18</v>
       </c>
+      <c r="B136">
+        <v>790.7</v>
+      </c>
       <c r="C136">
-        <v>13000</v>
+        <v>13005</v>
       </c>
       <c r="D136">
         <v>500</v>
       </c>
+      <c r="E136">
+        <v>211.1</v>
+      </c>
       <c r="F136">
         <v>27</v>
       </c>
       <c r="G136">
         <v>11</v>
+      </c>
+      <c r="H136">
+        <v>1422</v>
       </c>
       <c r="I136">
         <v>-1.2841128665658631E-2</v>
@@ -8017,17 +8906,26 @@
       <c r="A137" t="s">
         <v>18</v>
       </c>
+      <c r="B137">
+        <v>790.7</v>
+      </c>
       <c r="C137">
-        <v>13000</v>
+        <v>13005</v>
       </c>
       <c r="D137">
         <v>1000</v>
       </c>
+      <c r="E137">
+        <v>202</v>
+      </c>
       <c r="F137">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G137">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H137">
+        <v>1867</v>
       </c>
       <c r="I137">
         <v>-1.2841128665658631E-2</v>
@@ -8040,17 +8938,26 @@
       <c r="A138" t="s">
         <v>18</v>
       </c>
+      <c r="B138">
+        <v>790.7</v>
+      </c>
       <c r="C138">
-        <v>13000</v>
+        <v>13005</v>
       </c>
       <c r="D138">
         <v>1500</v>
       </c>
+      <c r="E138">
+        <v>193.6</v>
+      </c>
       <c r="F138">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G138">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H138">
+        <v>2318</v>
       </c>
       <c r="I138">
         <v>-1.2841128665658631E-2</v>
@@ -8063,8 +8970,11 @@
       <c r="A139" t="s">
         <v>18</v>
       </c>
+      <c r="B139">
+        <v>790.7</v>
+      </c>
       <c r="C139">
-        <v>15000</v>
+        <v>15006</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -8092,17 +9002,26 @@
       <c r="A140" t="s">
         <v>18</v>
       </c>
+      <c r="B140">
+        <v>790.7</v>
+      </c>
       <c r="C140">
-        <v>15000</v>
+        <v>15006</v>
       </c>
       <c r="D140">
         <v>500</v>
       </c>
+      <c r="E140">
+        <v>277.39999999999998</v>
+      </c>
       <c r="F140">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H140">
+        <v>1962</v>
       </c>
       <c r="I140">
         <v>-1.3212017069093401E-2</v>
@@ -8115,17 +9034,26 @@
       <c r="A141" t="s">
         <v>18</v>
       </c>
+      <c r="B141">
+        <v>790.7</v>
+      </c>
       <c r="C141">
-        <v>15000</v>
+        <v>15006</v>
       </c>
       <c r="D141">
         <v>1000</v>
       </c>
+      <c r="E141">
+        <v>263.7</v>
+      </c>
       <c r="F141">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G141">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H141">
+        <v>2366</v>
       </c>
       <c r="I141">
         <v>-1.3212017069093401E-2</v>
@@ -8138,17 +9066,26 @@
       <c r="A142" t="s">
         <v>18</v>
       </c>
+      <c r="B142">
+        <v>790.7</v>
+      </c>
       <c r="C142">
-        <v>15000</v>
+        <v>15006</v>
       </c>
       <c r="D142">
         <v>1500</v>
       </c>
+      <c r="E142">
+        <v>251</v>
+      </c>
       <c r="F142">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G142">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H142">
+        <v>2777</v>
       </c>
       <c r="I142">
         <v>-1.3212017069093401E-2</v>
@@ -8161,6 +9098,9 @@
       <c r="A143" t="s">
         <v>18</v>
       </c>
+      <c r="B143">
+        <v>790.7</v>
+      </c>
       <c r="C143">
         <v>17000</v>
       </c>
@@ -8190,17 +9130,26 @@
       <c r="A144" t="s">
         <v>18</v>
       </c>
+      <c r="B144">
+        <v>790.7</v>
+      </c>
       <c r="C144">
-        <v>17000</v>
+        <v>17007</v>
       </c>
       <c r="D144">
         <v>500</v>
       </c>
+      <c r="E144">
+        <v>356.8</v>
+      </c>
       <c r="F144">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G144">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H144">
+        <v>2714</v>
       </c>
       <c r="I144">
         <v>1.8178042781862257E-2</v>
@@ -8213,17 +9162,26 @@
       <c r="A145" t="s">
         <v>18</v>
       </c>
+      <c r="B145">
+        <v>790.7</v>
+      </c>
       <c r="C145">
-        <v>17000</v>
+        <v>17007</v>
       </c>
       <c r="D145">
         <v>1000</v>
       </c>
+      <c r="E145">
+        <v>337.5</v>
+      </c>
       <c r="F145">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G145">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H145">
+        <v>3062</v>
       </c>
       <c r="I145">
         <v>1.8178042781862257E-2</v>
@@ -8236,17 +9194,26 @@
       <c r="A146" t="s">
         <v>18</v>
       </c>
+      <c r="B146">
+        <v>790.7</v>
+      </c>
       <c r="C146">
-        <v>17000</v>
+        <v>17007</v>
       </c>
       <c r="D146">
         <v>1500</v>
       </c>
+      <c r="E146">
+        <v>319.39999999999998</v>
+      </c>
       <c r="F146">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G146">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="H146">
+        <v>3417</v>
       </c>
       <c r="I146">
         <v>1.8178042781862257E-2</v>
@@ -8259,6 +9226,9 @@
       <c r="A147" t="s">
         <v>18</v>
       </c>
+      <c r="B147">
+        <v>790.7</v>
+      </c>
       <c r="C147">
         <v>19000</v>
       </c>
@@ -8288,17 +9258,26 @@
       <c r="A148" t="s">
         <v>18</v>
       </c>
+      <c r="B148">
+        <v>790.7</v>
+      </c>
       <c r="C148">
-        <v>19000</v>
+        <v>19008</v>
       </c>
       <c r="D148">
         <v>500</v>
       </c>
+      <c r="E148">
+        <v>453</v>
+      </c>
       <c r="F148">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G148">
         <v>20</v>
+      </c>
+      <c r="H148">
+        <v>3755</v>
       </c>
       <c r="I148">
         <v>9.4412375795279377E-2</v>
@@ -8311,17 +9290,26 @@
       <c r="A149" t="s">
         <v>18</v>
       </c>
+      <c r="B149">
+        <v>790.7</v>
+      </c>
       <c r="C149">
-        <v>19000</v>
+        <v>19008</v>
       </c>
       <c r="D149">
         <v>1000</v>
       </c>
+      <c r="E149">
+        <v>425.9</v>
+      </c>
       <c r="F149">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G149">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H149">
+        <v>4014</v>
       </c>
       <c r="I149">
         <v>9.4412375795279377E-2</v>
@@ -8334,17 +9322,26 @@
       <c r="A150" t="s">
         <v>18</v>
       </c>
+      <c r="B150">
+        <v>790.7</v>
+      </c>
       <c r="C150">
-        <v>19000</v>
+        <v>19008</v>
       </c>
       <c r="D150">
         <v>1500</v>
       </c>
+      <c r="E150">
+        <v>400.7</v>
+      </c>
       <c r="F150">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G150">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H150">
+        <v>4287</v>
       </c>
       <c r="I150">
         <v>9.4412375795279377E-2</v>
@@ -8357,6 +9354,9 @@
       <c r="A151" t="s">
         <v>18</v>
       </c>
+      <c r="B151">
+        <v>790.7</v>
+      </c>
       <c r="C151">
         <v>21000</v>
       </c>
@@ -8386,17 +9386,26 @@
       <c r="A152" t="s">
         <v>18</v>
       </c>
+      <c r="B152">
+        <v>790.7</v>
+      </c>
       <c r="C152">
-        <v>21000</v>
+        <v>21008</v>
       </c>
       <c r="D152">
         <v>500</v>
       </c>
+      <c r="E152">
+        <v>577.4</v>
+      </c>
       <c r="F152">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G152">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="H152">
+        <v>5267</v>
       </c>
       <c r="I152">
         <v>0.395158384848594</v>
@@ -8409,17 +9418,26 @@
       <c r="A153" t="s">
         <v>18</v>
       </c>
+      <c r="B153">
+        <v>790.7</v>
+      </c>
       <c r="C153">
-        <v>21000</v>
+        <v>21008</v>
       </c>
       <c r="D153">
         <v>1000</v>
       </c>
+      <c r="E153">
+        <v>536.4</v>
+      </c>
       <c r="F153">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G153">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="H153">
+        <v>5353</v>
       </c>
       <c r="I153">
         <v>0.395158384848594</v>
@@ -8432,17 +9450,26 @@
       <c r="A154" t="s">
         <v>18</v>
       </c>
+      <c r="B154">
+        <v>790.7</v>
+      </c>
       <c r="C154">
-        <v>21000</v>
+        <v>21008</v>
       </c>
       <c r="D154">
         <v>1500</v>
       </c>
+      <c r="E154">
+        <v>499.7</v>
+      </c>
       <c r="F154">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G154">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="H154">
+        <v>5482</v>
       </c>
       <c r="I154">
         <v>0.395158384848594</v>
@@ -8457,3968 +9484,3968 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79847A28-372E-49B8-A09E-0640B8223929}">
-  <dimension ref="A1:J155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:K155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J155"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>288.2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2500</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>163.69999999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>105</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.5899818199726022E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-2.343371286751493E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>288.2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>201</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>156</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.1157171740528541E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-3.8202137194434493E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>288.2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>500</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>200.2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>655</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4.1157171740528541E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-3.8202137194434493E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>288.2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>199.4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1154</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4.1157171740528541E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-3.8202137194434493E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>288.2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1500</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>198.3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1653</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.1157171740528541E-2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-3.8202137194434493E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>288.2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>282.60000000000002</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>301</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8.9812986771225456E-2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-8.194430094616327E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>288.2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4002</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>500</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>281</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>798</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>8.9812986771225456E-2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-8.194430094616327E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>288.2</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4002</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>750</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>280.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>15</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1047</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>8.9812986771225456E-2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-8.194430094616327E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>288.2</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4002</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>279.39999999999998</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>15</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1296</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8.9812986771225456E-2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-8.194430094616327E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>288.2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4002</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1500</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>277.8</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1793</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>8.9812986771225456E-2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-8.194430094616327E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>288.2</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>378.9</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>522</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.18442423053876511</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.16804215266132622</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>288.2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5002</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>500</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>375.9</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>9</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1015</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.184424230538765</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.16804215266132622</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>288.2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5002</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>372.8</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>20</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1509</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.184424230538765</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.16804215266132622</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>288.2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>5002</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1500</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>369.9</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>20</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2003</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.184424230538765</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.16804215266132622</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>288.2</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>6000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>505.5</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>26</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>13</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>878</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.49153409903441925</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.38738217907549494</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>288.2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>6002</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>500</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>498.9</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>26</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1363</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.49153409903441925</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.38738217907549494</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>288.2</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>6002</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>492.7</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>26</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>13</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1847</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.49153409903441925</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-0.38738217907549494</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>288.2</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6002</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1500</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>487</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>26</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>12</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2332</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.49153409903441925</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.38738217907549494</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>3000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>101.7</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>8</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>83</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>7.6667802181275115E-3</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-2.7417226413038189E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>3000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>500</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>8</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>7.6667802181275115E-3</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-2.7417226413038189E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>8</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>7.6667802181275115E-3</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-2.7417226413038189E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1500</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>7.6667802181275115E-3</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-2.7417226413038189E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>4000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>145.1</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>11</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>4</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>161</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1.5060471433127446E-2</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-9.8146808830853697E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>500</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>11</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.5060471433127446E-2</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-9.8146808830853697E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>11</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.5060471433127446E-2</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-9.8146808830853697E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1500</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>11</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.5060471433127446E-2</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-9.8146808830853697E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>5000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>193.3</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>14</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>5</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>274</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2.3879867339872851E-2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-2.0603451764385446E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>500</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>14</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.3879867339872851E-2</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-2.0603451764385446E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>5000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>14</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2.3879867339872851E-2</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-2.0603451764385446E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>5000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1500</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>14</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.3879867339872851E-2</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-2.0603451764385446E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>15</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>6000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>246.2</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>18</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>7</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>426</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4.5449460719777471E-2</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-3.3658677328201145E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>6000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>500</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>18</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>7</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>4.5449460719777471E-2</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-3.3658677328201145E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>6000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>18</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>7</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>4.5449460719777471E-2</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-3.3658677328201145E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>6000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1500</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>18</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>7</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>4.5449460719777471E-2</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-3.3658677328201145E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>7000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>304.7</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>22</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>8</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>626</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>6.8140247417609615E-2</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-5.8971661602865412E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>7000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>500</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>22</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>8</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>6.8140247417609615E-2</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-5.8971661602865412E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>7000</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>22</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>8</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>6.8140247417609615E-2</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-5.8971661602865412E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>7000</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1500</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>22</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>8</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>6.8140247417609615E-2</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-5.8971661602865412E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>8000</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>370.1</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>26</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>10</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>884</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.11054953557288512</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-0.10007265316182075</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>8000</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>500</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>26</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>10</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.11054953557288512</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-0.10007265316182075</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>15</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>8000</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1000</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>26</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>10</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.11054953557288512</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-0.10007265316182075</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>8000</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1500</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>26</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>10</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.11054953557288512</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-0.10007265316182075</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>9000</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>446.3</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>31</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>13</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>1226</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.19031878268271962</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-0.19031878268272129</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>9000</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>500</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>31</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>13</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.19031878268271962</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-0.19031878268272129</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>15</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>9000</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1000</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>31</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>13</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.19031878268271962</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-0.19031878268272129</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>9000</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1500</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>31</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>13</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.19031878268271962</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>-0.19031878268272129</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>15</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>10000</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>540.70000000000005</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>36</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>16</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1708</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.44032849826147868</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>-0.37158554720809106</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>15</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>10000</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>500</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>36</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>16</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0.44032849826147868</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>-0.37158554720809106</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>10000</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1000</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>36</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>16</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.44032849826147868</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>-0.37158554720809106</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>15</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>10000</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1500</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>36</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>16</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0.44032849826147868</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>-0.37158554720809106</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>16</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>4000</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>79.099999999999994</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>3</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>87</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>3.2574426955328671E-3</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>-1.945995058022255E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>16</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>4000</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>500</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>8</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>3</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>3.2574426955328671E-3</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>-1.945995058022255E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>4000</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1000</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>8</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>3</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>3.2574426955328671E-3</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>-1.945995058022255E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>4000</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1500</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>3.2574426955328671E-3</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>-1.945995058022255E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>5000</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>106</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>11</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>4</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>151</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>5.8595816746911823E-3</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>-9.4495831145972246E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>16</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>5000</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>500</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>11</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>4</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>5.8595816746911823E-3</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>-9.4495831145972246E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>16</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>5000</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>1000</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>11</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>4</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>5.8595816746911823E-3</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>-9.4495831145972246E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>5000</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>1500</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>11</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>4</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>5.8595816746911823E-3</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>-9.4495831145972246E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>16</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>7000</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>172.2</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>17</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>6</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>366</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1.0836586075463207E-2</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>-8.5444396217768306E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>16</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>7000</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>500</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>17</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>6</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>1.0836586075463207E-2</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>-8.5444396217768306E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>16</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>7000</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>1000</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>17</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>6</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1.0836586075463207E-2</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>-8.5444396217768306E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>16</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>7000</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>1500</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>17</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>6</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>1.0836586075463207E-2</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>-8.5444396217768306E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>16</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>8000</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>211.9</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>20</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>7</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>529</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>1.8876814476067462E-2</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>-1.6257593873301373E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>8000</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>500</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>20</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>7</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>1.8876814476067462E-2</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>-1.6257593873301373E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>8000</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>1000</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>20</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>7</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>1.8876814476067462E-2</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>-1.6257593873301373E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>16</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>8000</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>1500</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>20</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>7</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>1.8876814476067462E-2</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>-1.6257593873301373E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>9000</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>256.10000000000002</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>24</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>9</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>736</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>3.4163100796124793E-2</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>-2.5324099934620783E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>16</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>9000</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>500</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>24</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>9</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>3.4163100796124793E-2</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>-2.5324099934620783E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>9000</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1000</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>24</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>9</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>3.4163100796124793E-2</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>-2.5324099934620783E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>9000</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>1500</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>24</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>9</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>3.4163100796124793E-2</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>-2.5324099934620783E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>10000</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>305.10000000000002</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>27</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>10</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>994</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>5.4058582818627202E-2</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>-4.4238161239573158E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>10000</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>500</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>27</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>10</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>5.4058582818627202E-2</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>-4.4238161239573158E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>16</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>10000</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>1000</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>27</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>10</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>5.4058582818627202E-2</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>-4.4238161239573158E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>16</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>10000</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>1500</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>27</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>10</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>5.4058582818627202E-2</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>-4.4238161239573158E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>12000</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>0</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>420.6</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>36</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>15</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>1702</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.13120893548428586</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>-0.11549770026922944</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>16</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>12000</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>500</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>36</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>15</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0.13120893548428586</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>-0.11549770026922944</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>16</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>12000</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>1000</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>36</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>15</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>0.13120893548428586</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>-0.11549770026922944</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>12000</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>1500</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>36</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>15</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0.13120893548428586</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>-0.11549770026922944</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>16</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>13000</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>0</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>490</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>41</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>17</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>2191</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0.26798855024841994</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>-0.15735867673681411</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>13000</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>500</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>41</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>17</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>0.26798855024841994</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>-0.15735867673681411</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>16</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>13000</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>1000</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>41</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>17</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>0.26798855024841994</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>-0.15735867673681411</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>13000</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>1500</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>41</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>17</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0.26798855024841994</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>-0.15735867673681411</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>14000</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>0</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>577.9</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>47</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>21</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>2847</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>0.47088313412861332</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>-0.38840370604663194</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>16</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>14000</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>500</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>47</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>21</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>0.47088313412861332</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>-0.38840370604663194</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>16</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>14000</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>1000</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>47</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>21</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0.47088313412861332</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>-0.38840370604663194</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>16</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>14000</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>1500</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>47</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>21</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>0.47088313412861332</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>-0.38840370604663194</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>17</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>4000</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>0</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>53</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>6</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>2</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>58</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>6.3454742051201546E-4</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>-1.9459950580224413E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>17</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>4000</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>500</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>6</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>2</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>6.3454742051201546E-4</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>-1.9459950580224413E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>17</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>4000</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>1000</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>6</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>2</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>6.3454742051201546E-4</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>-1.9459950580224413E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>17</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>4000</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>1500</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>6</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>2</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>6.3454742051201546E-4</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>-1.9459950580224413E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>17</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>6000</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>0</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>89.5</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>11</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>4</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>154</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>8.1119799797858601E-3</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>1.7136728465281196E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>17</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>6000</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>500</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>11</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>4</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>8.1119799797858601E-3</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>1.7136728465281196E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>17</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>6000</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>1000</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>11</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>4</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>8.1119799797858601E-3</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>1.7136728465281196E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>17</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>6000</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>1500</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>11</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>4</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>8.1119799797858601E-3</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>1.7136728465281196E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>17</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>8000</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>0</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>136.5</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>16</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>5</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>332</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>1.1019152667768446E-2</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>-5.4227025670370937E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>17</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>8000</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>500</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>16</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>5</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>1.1019152667768446E-2</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>-5.4227025670370937E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>17</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>8000</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>1000</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>16</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>5</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>1.1019152667768446E-2</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>-5.4227025670370937E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>17</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>8000</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>1500</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>16</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>5</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>1.1019152667768446E-2</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>-5.4227025670370937E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>17</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>10000</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>0</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>197.3</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>22</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>8</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>637</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>1.1503422642719509E-2</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>-4.9564749233504532E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>17</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>10000</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>500</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>22</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>8</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>1.1503422642719509E-2</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>-4.9564749233504532E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>17</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>10000</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>1000</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>22</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>8</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>1.1503422642719509E-2</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>-4.9564749233504532E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>17</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>10000</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>1500</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>22</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>8</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1.1503422642719509E-2</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>-4.9564749233504532E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>17</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>12000</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>0</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>274</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>29</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>10</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>1116</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>3.3013715390165906E-2</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>-2.5158097782635457E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>17</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>12000</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>500</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>29</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>10</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>3.3013715390165906E-2</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>-2.5158097782635457E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>17</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>12000</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>1000</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>29</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>10</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>3.3013715390165906E-2</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>-2.5158097782635457E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>17</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>12000</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>1500</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>29</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>10</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>3.3013715390165906E-2</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>-2.5158097782635457E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>17</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>14000</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>0</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>368.8</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>37</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>14</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>1825</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>7.6814755514716143E-2</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>-6.3068184167719241E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>17</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>14000</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>500</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>37</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>14</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>7.6814755514716143E-2</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>-6.3068184167719241E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>17</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>14000</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>1000</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>37</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>14</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>7.6814755514716143E-2</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>-6.3068184167719241E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>17</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>14000</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>1500</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>37</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>14</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>7.6814755514716143E-2</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>-6.3068184167719241E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>17</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>16000</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>0</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>488.5</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>46</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>19</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>2864</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>0.19394509429885623</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>-0.15205228397258</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>17</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>16000</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>500</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>46</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>19</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>0.19394509429885623</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>-0.15205228397258</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>17</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>16000</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>1000</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>46</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>19</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>0.19394509429885623</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>-0.15205228397258</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>17</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>16000</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>1500</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>46</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>19</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>0.19394509429885623</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>-0.15205228397258</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>17</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>18000</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>0</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>667</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>60</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>28</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>4627</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>0.89691217535354784</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>-0.69661710093732965</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>17</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>18000</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>500</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>60</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>28</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>0.89691217535354784</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>-0.69661710093732965</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>17</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>18000</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>1000</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>60</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>28</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>0.89691217535354784</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>-0.69661710093732965</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>17</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>18000</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>1500</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>60</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>28</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>0.89691217535354784</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>-0.69661710093732965</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>18</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>5000</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>0</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>51</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>7</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>3</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>71</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>9.4495831145960602E-4</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>6.932494762840974E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>18</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>5000</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>500</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>7</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>3</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>9.4495831145960602E-4</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>6.932494762840974E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>18</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>5000</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>1000</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>7</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>3</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>9.4495831145960602E-4</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>6.932494762840974E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>18</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>5000</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>1500</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>7</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>3</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>9.4495831145960602E-4</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>6.932494762840974E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>18</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>7000</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>0</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>80.099999999999994</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>11</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>5</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>163</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>-6.2414619296639971E-4</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>2.9162926466526143E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>18</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>7000</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>500</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>11</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>5</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>-6.2414619296639971E-4</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>2.9162926466526143E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>18</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>7000</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>1000</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>11</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>5</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>-6.2414619296639971E-4</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>2.9162926466526143E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>18</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>7000</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>1500</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>11</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>5</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>-6.2414619296639971E-4</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>2.9162926466526143E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>18</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>9000</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>0</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>116.6</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>16</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>6</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>322</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>-1.1929026498954296E-3</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>1.0031903511401112E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>18</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>9000</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>500</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>16</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>6</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>-1.1929026498954296E-3</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>1.0031903511401112E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>18</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>9000</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>1000</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>16</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>6</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>-1.1929026498954296E-3</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>1.0031903511401112E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>18</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>9000</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>1500</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>16</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>6</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>-1.1929026498954296E-3</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>1.0031903511401112E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>18</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>11000</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>0</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>162.80000000000001</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>21</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>8</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>581</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>-6.2250427179554686E-3</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>1.7026944427542295E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>18</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>11000</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>500</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>21</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>8</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>-6.2250427179554686E-3</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>1.7026944427542295E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>18</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>11000</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>1000</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>21</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>8</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>-6.2250427179554686E-3</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>1.7026944427542295E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>18</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>11000</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>1500</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>21</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>8</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>-6.2250427179554686E-3</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>1.7026944427542295E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>18</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>13000</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>0</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>220.9</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>27</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>11</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>980</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>-1.2841128665658631E-2</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>2.1351118935781784E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>18</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>13000</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>500</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>27</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>11</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>-1.2841128665658631E-2</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>2.1351118935781784E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>18</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>13000</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>1000</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>27</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>11</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>-1.2841128665658631E-2</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>2.1351118935781784E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>18</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>13000</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>1500</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>27</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>11</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>-1.2841128665658631E-2</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>2.1351118935781784E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>18</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>15000</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>0</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>291.89999999999998</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>35</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>14</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>1562</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>-1.3212017069093401E-2</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>1.8121410018999518E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>18</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>15000</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>500</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>35</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>14</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>-1.3212017069093401E-2</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>1.8121410018999518E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>18</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>15000</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>1000</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>35</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>14</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>-1.3212017069093401E-2</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>1.8121410018999518E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>18</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>15000</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>1500</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>35</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>14</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>-1.3212017069093401E-2</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>1.8121410018999518E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>18</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>17000</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>0</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>377.2</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>42</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>17</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>2375</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>1.8178042781862257E-2</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>-1.4865994575688113E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>18</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>17000</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>500</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>42</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>17</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>1.8178042781862257E-2</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>-1.4865994575688113E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>18</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>17000</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>1000</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>42</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>17</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>1.8178042781862257E-2</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>-1.4865994575688113E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>18</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>17000</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>1500</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>42</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>17</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>1.8178042781862257E-2</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>-1.4865994575688113E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>18</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>19000</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>0</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>481.7</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>52</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>20</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>3507</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>9.4412375795279377E-2</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>-7.5757619389677344E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>18</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>19000</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>500</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>52</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>20</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>9.4412375795279377E-2</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>-7.5757619389677344E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>18</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>19000</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>1000</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>52</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>20</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>9.4412375795279377E-2</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>-7.5757619389677344E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>18</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>19000</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>1500</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>52</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>20</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>9.4412375795279377E-2</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>-7.5757619389677344E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>18</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>21000</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>0</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>624</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>64</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>26</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>5234</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>0.395158384848594</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>-0.34017677362303667</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>18</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>21000</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>500</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>64</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>26</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>0.395158384848594</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>-0.34017677362303667</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>18</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>21000</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>1000</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>64</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>26</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>0.395158384848594</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>-0.34017677362303667</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>18</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>21000</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>1500</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>64</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>26</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>0.395158384848594</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>-0.34017677362303667</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J155">
-    <sortCondition ref="A2:A155"/>
-    <sortCondition ref="C2:C155"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K155">
+    <sortCondition ref="B2:B155"/>
     <sortCondition ref="D2:D155"/>
+    <sortCondition ref="E2:E155"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4670200D-FCB4-4365-B586-1F17B816050D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12430,7 +13457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371A989B-35A3-421F-B767-FFBE138A6C5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12742,7 +13769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5777B8-458F-4FD1-BC5E-7D792F8D0E8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
